--- a/database_struct/Standardtabeller/standardtabeller_SEATRACK3.xlsx
+++ b/database_struct/Standardtabeller/standardtabeller_SEATRACK3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11976" windowHeight="6876" tabRatio="797" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11976" windowHeight="6876" tabRatio="797" firstSheet="24" activeTab="32" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="618">
   <si>
     <t>Migrate technology</t>
   </si>
@@ -1476,9 +1476,6 @@
     <t>? (fixed values?)</t>
   </si>
   <si>
-    <t>Fill in some more examples like this</t>
-  </si>
-  <si>
     <t>Don't know what to do here yet</t>
   </si>
   <si>
@@ -1944,9 +1941,6 @@
     <t>Trondheim</t>
   </si>
   <si>
-    <t>VSB: remove 'date' from column name: back_on_nest = 'yes', 'no'</t>
-  </si>
-  <si>
     <t>Captured in mist-net. Biometric measurements and blood samples to be collected at recapture</t>
   </si>
   <si>
@@ -1962,18 +1956,9 @@
     <t>*</t>
   </si>
   <si>
-    <t>*VSB: don't need a seperate retrieval location and deployment location, 'colony' (standarized, should always contain a name from a pre-made table) and 'location' (free to fill inn whatever name) is enough</t>
-  </si>
-  <si>
-    <t>VSB: sometimes a bird is observed outside the breeding season, somewhere else in the world. If possible, I suggest that 'colony' is allowed to be empty in cases where 'observation_location' + coordinates are filled. If not possible: 'colony' has to be filled with the colony where the logger was deployed</t>
-  </si>
-  <si>
     <t>VSB:?</t>
   </si>
   <si>
-    <t xml:space="preserve">? </t>
-  </si>
-  <si>
     <t>2015_16</t>
   </si>
   <si>
@@ -2005,9 +1990,6 @@
   </si>
   <si>
     <t>VSB: Same as with colony names, names of persons has been written in two different ways in our data (VS_Bråthen and Vegard Sandøy Bråthen), allow both kinds as long as they fit with one of the standards?</t>
-  </si>
-  <si>
-    <t>The same applies to individ_id. We need to think on how we will link the info of the individual from the field to the individ ids. Most of the time, we could use the metalring. But sometimes there is not ring N1set, and we still need a individ id. We probably need to do a "manual" step first where we match the metalring id from the field to a individ id, before entering the deployment data.</t>
   </si>
   <si>
     <t>ü</t>
@@ -2238,7 +2220,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2388,9 +2370,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3604,7 +3583,7 @@
         <v>14</v>
       </c>
       <c r="R18" s="36" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="19" spans="2:18" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -3801,7 +3780,7 @@
         <v>73</v>
       </c>
       <c r="O28" s="36" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="29" spans="2:18" s="14" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -3818,7 +3797,7 @@
         <v>74</v>
       </c>
       <c r="K29" s="36" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="30" spans="2:18" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -3964,7 +3943,7 @@
     <row r="40" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="3:10" s="14" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="G41" s="36" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="42" spans="3:10" x14ac:dyDescent="0.3">
@@ -3991,7 +3970,7 @@
   </sheetPr>
   <dimension ref="A1:I192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -5223,7 +5202,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="B65" t="s">
         <v>62</v>
@@ -6173,13 +6152,13 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="14" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="B115" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="C115" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="D115" s="22">
         <v>58.005279999999999</v>
@@ -6618,7 +6597,7 @@
     </row>
     <row r="3" spans="1:3" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>354</v>
@@ -6629,7 +6608,7 @@
         <v>309</v>
       </c>
       <c r="C4" s="58" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -6649,7 +6628,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -6664,12 +6643,12 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
     </row>
   </sheetData>
@@ -6697,7 +6676,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -6735,12 +6714,12 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>412</v>
@@ -6748,27 +6727,27 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
   </sheetData>
@@ -6909,12 +6888,12 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -7099,10 +7078,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="60" t="s">
+        <v>589</v>
+      </c>
+      <c r="B2" s="60" t="s">
         <v>590</v>
-      </c>
-      <c r="B2" s="60" t="s">
-        <v>591</v>
       </c>
       <c r="C2" s="60">
         <v>2015</v>
@@ -7111,7 +7090,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="60" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -7150,7 +7129,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
@@ -7160,7 +7139,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
@@ -7194,7 +7173,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -7229,7 +7208,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -7573,7 +7552,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -7773,7 +7752,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -7849,7 +7828,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -7992,7 +7971,7 @@
         <v>385</v>
       </c>
       <c r="K1" s="75" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="L1" t="s">
         <v>316</v>
@@ -8004,7 +7983,7 @@
         <v>387</v>
       </c>
       <c r="O1" s="70" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="P1" t="s">
         <v>388</v>
@@ -8119,7 +8098,7 @@
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="72" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="C5" s="73">
         <v>42238</v>
@@ -8146,25 +8125,25 @@
         <v>1</v>
       </c>
       <c r="K5" s="60" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M5" s="76" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="N5" s="76" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="P5" s="76" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Q5" s="76" t="s">
         <v>117</v>
       </c>
       <c r="S5" s="72" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>8</v>
@@ -8173,10 +8152,10 @@
         <v>1</v>
       </c>
       <c r="V5" s="14" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="X5" s="14" t="s">
         <v>20</v>
@@ -8209,8 +8188,8 @@
       <c r="X7" s="14"/>
       <c r="AA7" s="14"/>
       <c r="AB7" s="14"/>
-      <c r="AC7" s="81" t="s">
-        <v>613</v>
+      <c r="AC7" s="80" t="s">
+        <v>608</v>
       </c>
       <c r="AD7" s="3"/>
       <c r="AE7" s="3"/>
@@ -8219,16 +8198,16 @@
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="K8" s="66" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="O8" s="66" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="X8" s="14"/>
       <c r="AA8" s="14"/>
       <c r="AB8" s="14"/>
       <c r="AC8" s="14" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
@@ -8514,7 +8493,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -8522,7 +8501,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -8530,7 +8509,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -8538,7 +8517,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -8549,7 +8528,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -8589,7 +8568,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B11" t="s">
         <v>120</v>
@@ -8597,7 +8576,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B12" t="s">
         <v>121</v>
@@ -8605,7 +8584,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
@@ -8614,7 +8593,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B14" t="s">
         <v>122</v>
@@ -8623,7 +8602,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B15" t="s">
         <v>123</v>
@@ -8655,10 +8634,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B19" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -9039,7 +9018,7 @@
         <v>165</v>
       </c>
       <c r="M2" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -9059,7 +9038,7 @@
         <v>166</v>
       </c>
       <c r="M3" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -9079,7 +9058,7 @@
         <v>167</v>
       </c>
       <c r="M4" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -9102,7 +9081,7 @@
         <v>168</v>
       </c>
       <c r="M5" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -9119,7 +9098,7 @@
         <v>169</v>
       </c>
       <c r="M6" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -9142,7 +9121,7 @@
         <v>170</v>
       </c>
       <c r="M7" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -9159,7 +9138,7 @@
         <v>124</v>
       </c>
       <c r="M8" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
     </row>
   </sheetData>
@@ -9172,524 +9151,472 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:AL16"/>
+  <dimension ref="A1:AK10"/>
   <sheetViews>
-    <sheetView topLeftCell="Q10" workbookViewId="0">
-      <selection activeCell="AI9" sqref="AI9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.44140625" customWidth="1"/>
-    <col min="3" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.88671875" customWidth="1"/>
-    <col min="15" max="15" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="27" width="8.88671875" style="23"/>
-    <col min="28" max="28" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.44140625" customWidth="1"/>
+    <col min="2" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.88671875" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="8.88671875" style="23"/>
+    <col min="27" max="27" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>341</v>
-      </c>
-      <c r="B1" t="s">
         <v>350</v>
       </c>
+      <c r="B1" s="30" t="s">
+        <v>365</v>
+      </c>
       <c r="C1" s="30" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>371</v>
-      </c>
-      <c r="J1" s="30" t="s">
         <v>372</v>
       </c>
+      <c r="J1" s="29" t="s">
+        <v>351</v>
+      </c>
       <c r="K1" s="29" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L1" s="29" t="s">
-        <v>352</v>
-      </c>
-      <c r="M1" s="29" t="s">
         <v>353</v>
       </c>
+      <c r="M1" s="31" t="s">
+        <v>355</v>
+      </c>
       <c r="N1" s="31" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="O1" s="31" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="P1" s="31" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q1" s="31" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="R1" s="31" t="s">
-        <v>358</v>
-      </c>
-      <c r="S1" s="31" t="s">
         <v>338</v>
       </c>
+      <c r="S1" s="33" t="s">
+        <v>361</v>
+      </c>
       <c r="T1" s="33" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="U1" s="33" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="V1" s="33" t="s">
-        <v>363</v>
-      </c>
-      <c r="W1" s="33" t="s">
         <v>364</v>
       </c>
+      <c r="W1" s="35" t="s">
+        <v>413</v>
+      </c>
       <c r="X1" s="35" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Y1" s="35" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Z1" s="35" t="s">
+        <v>416</v>
+      </c>
+      <c r="AA1" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB1" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="AC1" s="32" t="s">
+        <v>418</v>
+      </c>
+      <c r="AD1" s="32" t="s">
+        <v>323</v>
+      </c>
+      <c r="AE1" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="AF1" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="AG1" s="32" t="s">
+        <v>419</v>
+      </c>
+      <c r="AH1" s="32" t="s">
+        <v>423</v>
+      </c>
+      <c r="AI1" s="32" t="s">
+        <v>420</v>
+      </c>
+      <c r="AJ1" s="32" t="s">
+        <v>424</v>
+      </c>
+      <c r="AK1" s="32"/>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="63">
+        <v>42515</v>
+      </c>
+      <c r="C2" s="61">
+        <v>0.41944444444444445</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>526</v>
+      </c>
+      <c r="F2" t="s">
+        <v>592</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>189</v>
+      </c>
+      <c r="L2" t="s">
+        <v>495</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q2" s="68">
+        <v>42169</v>
+      </c>
+      <c r="R2" t="s">
         <v>415</v>
       </c>
-      <c r="AA1" s="35" t="s">
-        <v>416</v>
-      </c>
-      <c r="AB1" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="AC1" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="AD1" s="32" t="s">
-        <v>418</v>
-      </c>
-      <c r="AE1" s="32" t="s">
-        <v>323</v>
-      </c>
-      <c r="AF1" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="AG1" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="AH1" s="32" t="s">
-        <v>419</v>
-      </c>
-      <c r="AI1" s="32" t="s">
-        <v>423</v>
-      </c>
-      <c r="AJ1" s="32" t="s">
-        <v>420</v>
-      </c>
-      <c r="AK1" s="32" t="s">
-        <v>424</v>
-      </c>
-      <c r="AL1" s="32"/>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
-        <v>342</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="63">
-        <v>42515</v>
-      </c>
-      <c r="D2" s="61">
-        <v>0.41944444444444445</v>
-      </c>
-      <c r="E2" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>527</v>
-      </c>
-      <c r="G2" t="s">
-        <v>593</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>189</v>
-      </c>
-      <c r="M2" t="s">
-        <v>496</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="R2" s="68">
-        <v>42169</v>
-      </c>
-      <c r="S2" t="s">
-        <v>415</v>
-      </c>
-      <c r="W2" s="67"/>
-      <c r="X2" s="14">
+      <c r="V2" s="67"/>
+      <c r="W2" s="14">
         <v>472</v>
       </c>
+      <c r="X2" s="24"/>
       <c r="Y2" s="24"/>
       <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="14" t="s">
+      <c r="AA2" s="14" t="s">
         <v>129</v>
       </c>
+      <c r="AB2" s="14"/>
       <c r="AC2" s="14"/>
-      <c r="AD2" s="14"/>
+      <c r="AD2" s="14" t="s">
+        <v>129</v>
+      </c>
       <c r="AE2" s="14" t="s">
         <v>129</v>
       </c>
       <c r="AF2" s="14" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AG2" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH2" s="14" t="s">
-        <v>496</v>
-      </c>
-      <c r="AI2" s="71" t="s">
+        <v>495</v>
+      </c>
+      <c r="AH2" s="71" t="s">
         <v>147</v>
       </c>
-      <c r="AJ2" s="14" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>343</v>
-      </c>
-      <c r="B3">
+      <c r="AI2" s="14" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="C3" s="64">
+      <c r="B3" s="64">
         <v>42136</v>
       </c>
-      <c r="D3" s="62">
+      <c r="C3" s="62">
         <v>0.35694444444444445</v>
       </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
       <c r="E3" t="s">
+        <v>526</v>
+      </c>
+      <c r="F3" t="s">
+        <v>592</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
-        <v>527</v>
-      </c>
-      <c r="G3" t="s">
-        <v>593</v>
-      </c>
-      <c r="H3">
+      <c r="I3" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>189</v>
+      </c>
+      <c r="L3" t="s">
+        <v>495</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q3" s="68">
+        <v>42567</v>
+      </c>
+      <c r="R3" t="s">
+        <v>415</v>
+      </c>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14">
+        <v>439</v>
+      </c>
+      <c r="X3" s="69">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14">
+        <v>172</v>
+      </c>
+      <c r="AA3" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB3" s="14">
         <v>0</v>
       </c>
-      <c r="I3" s="65" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" t="s">
-        <v>189</v>
-      </c>
-      <c r="M3" t="s">
-        <v>496</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="R3" s="68">
-        <v>42567</v>
-      </c>
-      <c r="S3" t="s">
-        <v>415</v>
-      </c>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14">
-        <v>439</v>
-      </c>
-      <c r="Y3" s="69">
-        <v>79.099999999999994</v>
-      </c>
-      <c r="Z3" s="14"/>
-      <c r="AA3" s="14">
-        <v>172</v>
-      </c>
-      <c r="AB3" s="14" t="s">
-        <v>139</v>
-      </c>
       <c r="AC3" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD3" s="14">
         <v>1</v>
       </c>
-      <c r="AE3" s="14">
+      <c r="AE3" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF3" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG3" s="14" t="s">
+        <v>495</v>
+      </c>
+      <c r="AH3" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI3" s="14" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="AF3" s="14" t="s">
+      <c r="U4" t="s">
+        <v>189</v>
+      </c>
+      <c r="V4" s="68">
+        <v>42498</v>
+      </c>
+      <c r="W4" s="14">
+        <v>470</v>
+      </c>
+      <c r="X4" s="69">
+        <v>83.4</v>
+      </c>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14">
+        <v>174</v>
+      </c>
+      <c r="AA4" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="AG3" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH3" s="14" t="s">
-        <v>496</v>
-      </c>
-      <c r="AI3" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="AJ3" s="14" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
-        <v>344</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="V4" t="s">
-        <v>189</v>
-      </c>
-      <c r="W4" s="68">
-        <v>42498</v>
-      </c>
-      <c r="X4" s="14">
-        <v>470</v>
-      </c>
-      <c r="Y4" s="69">
-        <v>83.4</v>
-      </c>
-      <c r="Z4" s="14"/>
-      <c r="AA4" s="14">
-        <v>174</v>
-      </c>
-      <c r="AB4" s="14" t="s">
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="AC4" s="14"/>
-      <c r="AD4" s="14"/>
       <c r="AE4" s="14" t="s">
         <v>129</v>
       </c>
       <c r="AF4" s="14" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AG4" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH4" s="14" t="s">
-        <v>496</v>
-      </c>
-      <c r="AI4" s="71" t="s">
+        <v>495</v>
+      </c>
+      <c r="AH4" s="71" t="s">
         <v>147</v>
       </c>
-      <c r="AJ4" s="14" t="s">
+      <c r="AI4" s="14" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="S5" s="66" t="s">
+        <v>598</v>
+      </c>
+      <c r="T5" s="66" t="s">
+        <v>598</v>
+      </c>
+      <c r="W5" s="23" t="s">
+        <v>427</v>
+      </c>
+      <c r="X5" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y5" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="Z5" s="23" t="s">
+        <v>430</v>
+      </c>
+      <c r="AA5" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB5">
+        <v>2</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="23"/>
+      <c r="AE5" s="23"/>
+      <c r="AG5" t="s">
+        <v>426</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="P6" s="66" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
-        <v>345</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="T5" t="s">
-        <v>603</v>
-      </c>
-      <c r="U5" t="s">
-        <v>426</v>
-      </c>
-      <c r="W5" s="67"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="69"/>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="14"/>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
-        <v>346</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="T6" s="66" t="s">
-        <v>602</v>
-      </c>
       <c r="U6" s="66" t="s">
-        <v>602</v>
+        <v>597</v>
+      </c>
+      <c r="W6" s="23" t="s">
+        <v>432</v>
       </c>
       <c r="X6" s="23" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="Y6" s="23" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="Z6" s="23" t="s">
-        <v>429</v>
-      </c>
-      <c r="AA6" s="23" t="s">
-        <v>430</v>
-      </c>
-      <c r="AB6" s="23" t="s">
-        <v>138</v>
+        <v>435</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>436</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
       </c>
       <c r="AC6">
         <v>2</v>
       </c>
       <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="23"/>
-      <c r="AF6" s="23"/>
-      <c r="AH6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>437</v>
+      </c>
+      <c r="AG6" t="s">
         <v>426</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AJ6" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="Q7" s="66" t="s">
-        <v>599</v>
-      </c>
-      <c r="V7" s="66" t="s">
-        <v>599</v>
-      </c>
-      <c r="X7" s="23" t="s">
-        <v>432</v>
-      </c>
-      <c r="Y7" s="23" t="s">
-        <v>433</v>
-      </c>
-      <c r="Z7" s="23" t="s">
-        <v>434</v>
-      </c>
-      <c r="AA7" s="23" t="s">
-        <v>435</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>436</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>2</v>
-      </c>
-      <c r="AE7">
-        <v>1</v>
-      </c>
-      <c r="AF7">
-        <v>1</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>437</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>426</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="77" t="s">
-        <v>598</v>
-      </c>
-      <c r="F9" s="78" t="s">
-        <v>614</v>
-      </c>
-      <c r="V9" s="78" t="s">
-        <v>600</v>
-      </c>
-      <c r="AI9" s="79" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" ht="288" x14ac:dyDescent="0.3">
-      <c r="B10" s="21" t="s">
-        <v>438</v>
-      </c>
-      <c r="V10" s="78" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="16" spans="1:38" ht="147.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="28" t="s">
+    <row r="8" spans="1:37" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="77" t="s">
+        <v>596</v>
+      </c>
+      <c r="E8" s="78" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" ht="147.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="28" t="s">
         <v>425</v>
-      </c>
-      <c r="N16" s="28" t="s">
-        <v>615</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB3" xr:uid="{00000000-0002-0000-2000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA3" xr:uid="{00000000-0002-0000-2000-000000000000}">
       <formula1>Breeding_stage</formula1>
     </dataValidation>
   </dataValidations>
@@ -9702,7 +9629,7 @@
           <x14:formula1>
             <xm:f>'[Copy of Metadata Rost from Tycho 2016 (received170220).xlsx]List'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>O3 AG3:AG4</xm:sqref>
+          <xm:sqref>N3 AF3:AF4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9725,7 +9652,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -9748,7 +9675,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -9788,10 +9715,10 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -9799,10 +9726,10 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -9810,10 +9737,10 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -9821,10 +9748,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -9832,10 +9759,10 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -9843,10 +9770,10 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -9854,10 +9781,10 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -9865,7 +9792,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
@@ -9876,7 +9803,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -9887,7 +9814,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
@@ -9898,7 +9825,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
@@ -9909,7 +9836,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
@@ -9920,10 +9847,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -9931,10 +9858,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -9942,10 +9869,10 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C16" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -9953,10 +9880,10 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C17" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -9964,10 +9891,10 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -9975,10 +9902,10 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C19" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -9986,10 +9913,10 @@
         <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C20" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -9997,10 +9924,10 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C21" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -10008,10 +9935,10 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C22" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -10019,10 +9946,10 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C23" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -10030,10 +9957,10 @@
         <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C24" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -10041,10 +9968,10 @@
         <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -10052,10 +9979,10 @@
         <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C26" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -10063,10 +9990,10 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C27" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -10074,10 +10001,10 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C28" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -10085,10 +10012,10 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -10096,10 +10023,10 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C30" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -10107,10 +10034,10 @@
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C31" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -10118,10 +10045,10 @@
         <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C32" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -10129,10 +10056,10 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C33" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -10140,10 +10067,10 @@
         <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C34" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -10151,10 +10078,10 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C35" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -10162,10 +10089,10 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C36" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -10173,10 +10100,10 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C37" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -10184,10 +10111,10 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C38" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -10195,10 +10122,10 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C39" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -10206,10 +10133,10 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C40" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -10217,10 +10144,10 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C41" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -10228,10 +10155,10 @@
         <v>121</v>
       </c>
       <c r="B42" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C42" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -10239,10 +10166,10 @@
         <v>121</v>
       </c>
       <c r="B43" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C43" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -10250,10 +10177,10 @@
         <v>121</v>
       </c>
       <c r="B44" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C44" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -10261,10 +10188,10 @@
         <v>121</v>
       </c>
       <c r="B45" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C45" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -10272,10 +10199,10 @@
         <v>121</v>
       </c>
       <c r="B46" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C46" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -10283,10 +10210,10 @@
         <v>121</v>
       </c>
       <c r="B47" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C47" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -10294,10 +10221,10 @@
         <v>121</v>
       </c>
       <c r="B48" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C48" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -10305,10 +10232,10 @@
         <v>121</v>
       </c>
       <c r="B49" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C49" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -10316,10 +10243,10 @@
         <v>123</v>
       </c>
       <c r="B50" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C50" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -10327,10 +10254,10 @@
         <v>123</v>
       </c>
       <c r="B51" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C51" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -10338,10 +10265,10 @@
         <v>123</v>
       </c>
       <c r="B52" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C52" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -10349,10 +10276,10 @@
         <v>123</v>
       </c>
       <c r="B53" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C53" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -10360,10 +10287,10 @@
         <v>122</v>
       </c>
       <c r="B54" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C54" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -10371,10 +10298,10 @@
         <v>122</v>
       </c>
       <c r="B55" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C55" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -10382,10 +10309,10 @@
         <v>122</v>
       </c>
       <c r="B56" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C56" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -10393,10 +10320,10 @@
         <v>122</v>
       </c>
       <c r="B57" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C57" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -10404,10 +10331,10 @@
         <v>120</v>
       </c>
       <c r="B58" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C58" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -10415,10 +10342,10 @@
         <v>120</v>
       </c>
       <c r="B59" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C59" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -10426,10 +10353,10 @@
         <v>120</v>
       </c>
       <c r="B60" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C60" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -10437,10 +10364,10 @@
         <v>120</v>
       </c>
       <c r="B61" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C61" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -10448,54 +10375,54 @@
         <v>120</v>
       </c>
       <c r="B62" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C62" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B63" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C63" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B64" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C64" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B65" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C65" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B66" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C66" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -10503,7 +10430,7 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C67" t="s">
         <v>1</v>
@@ -10514,7 +10441,7 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C68" t="s">
         <v>1</v>
@@ -10525,7 +10452,7 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C69" t="s">
         <v>1</v>
@@ -10536,7 +10463,7 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C70" t="s">
         <v>1</v>
@@ -10547,7 +10474,7 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C71" t="s">
         <v>1</v>
@@ -10558,7 +10485,7 @@
         <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C72" t="s">
         <v>1</v>
@@ -10569,7 +10496,7 @@
         <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C73" t="s">
         <v>1</v>
@@ -10580,7 +10507,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C74" t="s">
         <v>1</v>
@@ -10591,7 +10518,7 @@
         <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C75" t="s">
         <v>1</v>
@@ -10602,7 +10529,7 @@
         <v>7</v>
       </c>
       <c r="B76" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C76" t="s">
         <v>1</v>
@@ -10613,7 +10540,7 @@
         <v>7</v>
       </c>
       <c r="B77" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C77" t="s">
         <v>1</v>
@@ -10624,7 +10551,7 @@
         <v>7</v>
       </c>
       <c r="B78" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C78" t="s">
         <v>1</v>
@@ -10635,7 +10562,7 @@
         <v>7</v>
       </c>
       <c r="B79" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C79" t="s">
         <v>1</v>
@@ -10646,10 +10573,10 @@
         <v>9</v>
       </c>
       <c r="B80" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C80" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -10657,10 +10584,10 @@
         <v>9</v>
       </c>
       <c r="B81" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C81" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -10668,10 +10595,10 @@
         <v>9</v>
       </c>
       <c r="B82" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C82" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -10679,10 +10606,10 @@
         <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C83" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -10690,7 +10617,7 @@
         <v>125</v>
       </c>
       <c r="B84" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C84" t="s">
         <v>3</v>
@@ -10701,7 +10628,7 @@
         <v>125</v>
       </c>
       <c r="B85" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C85" t="s">
         <v>3</v>
@@ -10730,7 +10657,7 @@
         <v>326</v>
       </c>
       <c r="B1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -10839,55 +10766,55 @@
         <v>327</v>
       </c>
       <c r="B1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="B5" t="s">
         <v>510</v>
-      </c>
-      <c r="B5" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -10895,15 +10822,15 @@
         <v>328</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
+        <v>511</v>
+      </c>
+      <c r="B9" t="s">
         <v>512</v>
-      </c>
-      <c r="B9" t="s">
-        <v>513</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>329</v>
@@ -10911,15 +10838,15 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B10" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B11" t="s">
         <v>97</v>
@@ -10927,15 +10854,15 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B12" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>96</v>
@@ -10943,7 +10870,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B14" t="s">
         <v>98</v>
@@ -10951,15 +10878,15 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B15" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B16" t="s">
         <v>100</v>
@@ -10967,7 +10894,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B17" t="s">
         <v>102</v>
@@ -10975,7 +10902,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B18" t="s">
         <v>105</v>
@@ -10983,23 +10910,23 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B19" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B20" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B21" t="s">
         <v>106</v>
@@ -11007,15 +10934,15 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B22" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B23" t="s">
         <v>108</v>
@@ -11023,15 +10950,15 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B24" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B25" t="s">
         <v>109</v>
@@ -11039,7 +10966,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B26" t="s">
         <v>110</v>
@@ -11047,7 +10974,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B27" t="s">
         <v>111</v>
@@ -11055,31 +10982,31 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B28" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B29" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="20" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B30" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B31" t="s">
         <v>113</v>
@@ -11087,7 +11014,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B32" t="s">
         <v>101</v>
@@ -11095,7 +11022,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B33" t="s">
         <v>116</v>
@@ -11103,15 +11030,15 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="B34" t="s">
         <v>523</v>
-      </c>
-      <c r="B34" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="20" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B35" t="s">
         <v>112</v>
@@ -11119,194 +11046,194 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="20" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B36" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="20" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B37" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="20" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B38" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="20" t="s">
+        <v>525</v>
+      </c>
+      <c r="B39" t="s">
         <v>526</v>
-      </c>
-      <c r="B39" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="20" t="s">
+        <v>527</v>
+      </c>
+      <c r="B40" t="s">
         <v>528</v>
-      </c>
-      <c r="B40" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="38" t="s">
+        <v>529</v>
+      </c>
+      <c r="B41" t="s">
         <v>530</v>
-      </c>
-      <c r="B41" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="20" t="s">
+        <v>531</v>
+      </c>
+      <c r="B42" t="s">
         <v>532</v>
-      </c>
-      <c r="B42" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="20" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B43" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="20" t="s">
+        <v>551</v>
+      </c>
+      <c r="B44" t="s">
         <v>552</v>
-      </c>
-      <c r="B44" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B45" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>535</v>
+      </c>
+      <c r="B46" t="s">
         <v>536</v>
-      </c>
-      <c r="B46" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B48" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>541</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>542</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>543</v>
+      </c>
+      <c r="B52" t="s">
         <v>544</v>
-      </c>
-      <c r="B52" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>545</v>
+      </c>
+      <c r="B53" t="s">
         <v>546</v>
-      </c>
-      <c r="B53" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>547</v>
+      </c>
+      <c r="B54" t="s">
         <v>548</v>
-      </c>
-      <c r="B54" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="15" t="s">
+        <v>549</v>
+      </c>
+      <c r="B55" t="s">
         <v>550</v>
-      </c>
-      <c r="B55" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="B56" s="15" t="s">
         <v>554</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="15" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
   </sheetData>
@@ -11429,8 +11356,8 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B15" s="80" t="s">
-        <v>616</v>
+      <c r="B15" s="79" t="s">
+        <v>610</v>
       </c>
     </row>
   </sheetData>
@@ -12154,10 +12081,10 @@
         <v>9.0250819999999994</v>
       </c>
       <c r="C40" s="42" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D40" s="42" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E40" s="39"/>
       <c r="F40" s="40"/>
@@ -12170,10 +12097,10 @@
         <v>-1.6505259999999999</v>
       </c>
       <c r="C41" s="42" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D41" s="42" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -12184,10 +12111,10 @@
         <v>9.4077999999999999</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -12198,10 +12125,10 @@
         <v>-56.663330100000003</v>
       </c>
       <c r="C43" s="45" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D43" s="45" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -12212,10 +12139,10 @@
         <v>-6.2804099999999998</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -12226,10 +12153,10 @@
         <v>-5.3002359999999999</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -12240,10 +12167,10 @@
         <v>-51.21</v>
       </c>
       <c r="C46" s="42" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D46" s="42" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -12254,10 +12181,10 @@
         <v>-50.591850000000001</v>
       </c>
       <c r="C47" s="42" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D47" s="42" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -12268,10 +12195,10 @@
         <v>23.5989887</v>
       </c>
       <c r="C48" s="42" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D48" s="42" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">

--- a/database_struct/Standardtabeller/standardtabeller_SEATRACK3.xlsx
+++ b/database_struct/Standardtabeller/standardtabeller_SEATRACK3.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Prosjekter\SEATRACK\seatrack-db\database_struct\Standardtabeller\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11976" windowHeight="6876" tabRatio="797" firstSheet="24" activeTab="32" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="6870" tabRatio="797"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
     <definedName name="Breeding_stage">[1]List!$C$2:$C$8</definedName>
     <definedName name="Species">[2]List!$H$2:$H$12</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -68,12 +68,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Bråthen, Vegard Sandøy</author>
   </authors>
   <commentList>
-    <comment ref="F32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="F32" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -97,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="J32" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -126,12 +126,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Bråthen, Vegard Sandøy</author>
   </authors>
   <commentList>
-    <comment ref="B32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1400-000001000000}">
+    <comment ref="B32" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="619">
   <si>
     <t>Migrate technology</t>
   </si>
@@ -2026,11 +2026,14 @@
   <si>
     <t>testlocation</t>
   </si>
+  <si>
+    <t>Bjornoya</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
@@ -2819,33 +2822,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V43"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="19"/>
-    <col min="2" max="2" width="12.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.6640625" style="19" customWidth="1"/>
-    <col min="8" max="10" width="9.109375" style="19"/>
-    <col min="11" max="11" width="20.44140625" style="19" customWidth="1"/>
-    <col min="12" max="14" width="9.109375" style="19"/>
-    <col min="15" max="15" width="34.44140625" style="19" customWidth="1"/>
-    <col min="16" max="16" width="9.109375" style="19"/>
-    <col min="17" max="17" width="20.88671875" style="19" customWidth="1"/>
-    <col min="18" max="18" width="59.33203125" style="19" customWidth="1"/>
-    <col min="19" max="16384" width="9.109375" style="19"/>
+    <col min="1" max="1" width="9.140625" style="19"/>
+    <col min="2" max="2" width="12.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" style="19" customWidth="1"/>
+    <col min="8" max="10" width="9.140625" style="19"/>
+    <col min="11" max="11" width="20.42578125" style="19" customWidth="1"/>
+    <col min="12" max="14" width="9.140625" style="19"/>
+    <col min="15" max="15" width="34.42578125" style="19" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="19"/>
+    <col min="17" max="17" width="20.85546875" style="19" customWidth="1"/>
+    <col min="18" max="18" width="59.28515625" style="19" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>183</v>
       </c>
@@ -2913,7 +2916,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -2979,7 +2982,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -3045,7 +3048,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>2</v>
       </c>
@@ -3107,7 +3110,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>3</v>
       </c>
@@ -3163,7 +3166,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -3210,7 +3213,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -3252,7 +3255,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -3290,7 +3293,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -3325,7 +3328,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -3360,7 +3363,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>120</v>
       </c>
@@ -3395,7 +3398,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>121</v>
       </c>
@@ -3424,7 +3427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>9</v>
       </c>
@@ -3456,7 +3459,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>122</v>
       </c>
@@ -3485,7 +3488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>123</v>
       </c>
@@ -3514,7 +3517,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>124</v>
       </c>
@@ -3537,7 +3540,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:18" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:18" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>125</v>
       </c>
@@ -3560,7 +3563,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:18" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:18" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>126</v>
       </c>
@@ -3586,7 +3589,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="19" spans="2:18" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:18" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F19" s="14" t="s">
         <v>64</v>
       </c>
@@ -3606,7 +3609,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:18" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:18" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F20" s="14" t="s">
         <v>65</v>
       </c>
@@ -3626,7 +3629,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:18" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:18" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F21" s="14" t="s">
         <v>66</v>
       </c>
@@ -3646,7 +3649,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:18" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:18" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F22" s="14" t="s">
         <v>67</v>
       </c>
@@ -3666,7 +3669,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:18" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:18" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F23" s="14" t="s">
         <v>68</v>
       </c>
@@ -3686,7 +3689,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="2:18" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:18" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F24" s="14" t="s">
         <v>69</v>
       </c>
@@ -3706,7 +3709,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:18" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:18" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F25" s="14" t="s">
         <v>70</v>
       </c>
@@ -3726,7 +3729,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="2:18" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:18" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F26" s="14" t="s">
         <v>71</v>
       </c>
@@ -3746,7 +3749,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="2:18" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:18" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F27" s="14" t="s">
         <v>72</v>
       </c>
@@ -3766,7 +3769,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="2:18" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:18" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="F28" s="14" t="s">
         <v>73</v>
       </c>
@@ -3783,7 +3786,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="29" spans="2:18" s="14" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:18" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="F29" s="14" t="s">
         <v>74</v>
       </c>
@@ -3800,7 +3803,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="30" spans="2:18" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:18" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F30" s="14" t="s">
         <v>75</v>
       </c>
@@ -3814,7 +3817,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="2:18" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:18" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F31" s="14" t="s">
         <v>76</v>
       </c>
@@ -3828,7 +3831,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="2:18" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:18" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F32" s="14" t="s">
         <v>77</v>
       </c>
@@ -3842,7 +3845,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F33" s="14" t="s">
         <v>78</v>
       </c>
@@ -3856,7 +3859,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F34" s="14" t="s">
         <v>79</v>
       </c>
@@ -3870,7 +3873,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F35" s="14" t="s">
         <v>80</v>
       </c>
@@ -3884,7 +3887,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F36" s="14" t="s">
         <v>81</v>
       </c>
@@ -3898,7 +3901,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F37" s="18" t="s">
         <v>82</v>
       </c>
@@ -3912,7 +3915,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F38" s="14" t="s">
         <v>83</v>
       </c>
@@ -3926,7 +3929,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F39" s="14" t="s">
         <v>84</v>
       </c>
@@ -3940,21 +3943,21 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="3:10" s="14" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="3:10" s="14" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="G41" s="36" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="42" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C42" s="14"/>
     </row>
-    <row r="43" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C43" s="14"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D3" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D3">
       <formula1>Species</formula1>
     </dataValidation>
   </dataValidations>
@@ -3964,29 +3967,29 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
   <dimension ref="A1:I192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="32.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="32.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>336</v>
       </c>
@@ -4003,7 +4006,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>269</v>
       </c>
@@ -4022,7 +4025,7 @@
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>242</v>
       </c>
@@ -4041,7 +4044,7 @@
       <c r="H3" s="22"/>
       <c r="I3" s="22"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -4060,7 +4063,7 @@
       <c r="H4" s="22"/>
       <c r="I4" s="22"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -4079,7 +4082,7 @@
       <c r="H5" s="22"/>
       <c r="I5" s="22"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>256</v>
       </c>
@@ -4098,7 +4101,7 @@
       <c r="H6" s="22"/>
       <c r="I6" s="22"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>225</v>
       </c>
@@ -4117,12 +4120,12 @@
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>185</v>
+        <v>618</v>
       </c>
       <c r="C8" t="s">
         <v>49</v>
@@ -4136,7 +4139,7 @@
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>287</v>
       </c>
@@ -4155,7 +4158,7 @@
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>78</v>
       </c>
@@ -4174,7 +4177,7 @@
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>223</v>
       </c>
@@ -4193,7 +4196,7 @@
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>296</v>
       </c>
@@ -4212,7 +4215,7 @@
       <c r="H12" s="22"/>
       <c r="I12" s="22"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>294</v>
       </c>
@@ -4231,7 +4234,7 @@
       <c r="H13" s="22"/>
       <c r="I13" s="22"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>227</v>
       </c>
@@ -4250,7 +4253,7 @@
       <c r="H14" s="22"/>
       <c r="I14" s="22"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>211</v>
       </c>
@@ -4269,7 +4272,7 @@
       <c r="H15" s="22"/>
       <c r="I15" s="22"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>71</v>
       </c>
@@ -4288,7 +4291,7 @@
       <c r="H16" s="22"/>
       <c r="I16" s="22"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -4307,7 +4310,7 @@
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>230</v>
       </c>
@@ -4326,7 +4329,7 @@
       <c r="H18" s="22"/>
       <c r="I18" s="22"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>266</v>
       </c>
@@ -4345,7 +4348,7 @@
       <c r="H19" s="22"/>
       <c r="I19" s="22"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>265</v>
       </c>
@@ -4364,7 +4367,7 @@
       <c r="H20" s="22"/>
       <c r="I20" s="22"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>273</v>
       </c>
@@ -4383,7 +4386,7 @@
       <c r="H21" s="22"/>
       <c r="I21" s="22"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>284</v>
       </c>
@@ -4402,7 +4405,7 @@
       <c r="H22" s="22"/>
       <c r="I22" s="22"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>290</v>
       </c>
@@ -4421,7 +4424,7 @@
       <c r="H23" s="22"/>
       <c r="I23" s="22"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -4440,7 +4443,7 @@
       <c r="H24" s="22"/>
       <c r="I24" s="22"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>264</v>
       </c>
@@ -4459,7 +4462,7 @@
       <c r="H25" s="22"/>
       <c r="I25" s="22"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -4478,7 +4481,7 @@
       <c r="H26" s="22"/>
       <c r="I26" s="22"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>224</v>
       </c>
@@ -4497,7 +4500,7 @@
       <c r="H27" s="22"/>
       <c r="I27" s="22"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
         <v>84</v>
       </c>
@@ -4516,7 +4519,7 @@
       <c r="H28" s="22"/>
       <c r="I28" s="22"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>236</v>
       </c>
@@ -4535,7 +4538,7 @@
       <c r="H29" s="22"/>
       <c r="I29" s="22"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>286</v>
       </c>
@@ -4554,7 +4557,7 @@
       <c r="H30" s="22"/>
       <c r="I30" s="22"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>228</v>
       </c>
@@ -4573,7 +4576,7 @@
       <c r="H31" s="22"/>
       <c r="I31" s="22"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>253</v>
       </c>
@@ -4592,7 +4595,7 @@
       <c r="H32" s="22"/>
       <c r="I32" s="22"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>262</v>
       </c>
@@ -4611,7 +4614,7 @@
       <c r="H33" s="22"/>
       <c r="I33" s="22"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -4630,7 +4633,7 @@
       <c r="H34" s="22"/>
       <c r="I34" s="22"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>58</v>
       </c>
@@ -4649,7 +4652,7 @@
       <c r="H35" s="22"/>
       <c r="I35" s="22"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>234</v>
       </c>
@@ -4668,7 +4671,7 @@
       <c r="H36" s="22"/>
       <c r="I36" s="22"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>74</v>
       </c>
@@ -4687,7 +4690,7 @@
       <c r="H37" s="22"/>
       <c r="I37" s="22"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -4706,7 +4709,7 @@
       <c r="H38" s="22"/>
       <c r="I38" s="22"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>65</v>
       </c>
@@ -4725,7 +4728,7 @@
       <c r="H39" s="22"/>
       <c r="I39" s="22"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>255</v>
       </c>
@@ -4744,7 +4747,7 @@
       <c r="H40" s="22"/>
       <c r="I40" s="22"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>210</v>
       </c>
@@ -4763,7 +4766,7 @@
       <c r="H41" s="22"/>
       <c r="I41" s="22"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>226</v>
       </c>
@@ -4782,7 +4785,7 @@
       <c r="H42" s="22"/>
       <c r="I42" s="22"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>220</v>
       </c>
@@ -4801,7 +4804,7 @@
       <c r="H43" s="22"/>
       <c r="I43" s="22"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>272</v>
       </c>
@@ -4820,7 +4823,7 @@
       <c r="H44" s="22"/>
       <c r="I44" s="22"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>237</v>
       </c>
@@ -4839,7 +4842,7 @@
       <c r="H45" s="22"/>
       <c r="I45" s="22"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>60</v>
       </c>
@@ -4858,7 +4861,7 @@
       <c r="H46" s="22"/>
       <c r="I46" s="22"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>239</v>
       </c>
@@ -4877,7 +4880,7 @@
       <c r="H47" s="22"/>
       <c r="I47" s="22"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>217</v>
       </c>
@@ -4896,7 +4899,7 @@
       <c r="H48" s="22"/>
       <c r="I48" s="22"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>232</v>
       </c>
@@ -4915,7 +4918,7 @@
       <c r="H49" s="22"/>
       <c r="I49" s="22"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>219</v>
       </c>
@@ -4934,7 +4937,7 @@
       <c r="H50" s="22"/>
       <c r="I50" s="22"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>283</v>
       </c>
@@ -4953,7 +4956,7 @@
       <c r="H51" s="22"/>
       <c r="I51" s="22"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>260</v>
       </c>
@@ -4972,7 +4975,7 @@
       <c r="H52" s="22"/>
       <c r="I52" s="22"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>243</v>
       </c>
@@ -4991,7 +4994,7 @@
       <c r="H53" s="22"/>
       <c r="I53" s="22"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>249</v>
       </c>
@@ -5010,7 +5013,7 @@
       <c r="H54" s="22"/>
       <c r="I54" s="22"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -5029,7 +5032,7 @@
       <c r="H55" s="22"/>
       <c r="I55" s="22"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>277</v>
       </c>
@@ -5048,7 +5051,7 @@
       <c r="H56" s="22"/>
       <c r="I56" s="22"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>285</v>
       </c>
@@ -5067,7 +5070,7 @@
       <c r="H57" s="22"/>
       <c r="I57" s="22"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>251</v>
       </c>
@@ -5086,7 +5089,7 @@
       <c r="H58" s="22"/>
       <c r="I58" s="22"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>212</v>
       </c>
@@ -5105,7 +5108,7 @@
       <c r="H59" s="22"/>
       <c r="I59" s="22"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>221</v>
       </c>
@@ -5124,7 +5127,7 @@
       <c r="H60" s="22"/>
       <c r="I60" s="22"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>291</v>
       </c>
@@ -5143,7 +5146,7 @@
       <c r="H61" s="22"/>
       <c r="I61" s="22"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>275</v>
       </c>
@@ -5162,7 +5165,7 @@
       <c r="H62" s="22"/>
       <c r="I62" s="22"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>222</v>
       </c>
@@ -5181,7 +5184,7 @@
       <c r="H63" s="22"/>
       <c r="I63" s="22"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>258</v>
       </c>
@@ -5200,7 +5203,7 @@
       <c r="H64" s="22"/>
       <c r="I64" s="22"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>616</v>
       </c>
@@ -5219,7 +5222,7 @@
       <c r="H65" s="22"/>
       <c r="I65" s="22"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>215</v>
       </c>
@@ -5238,7 +5241,7 @@
       <c r="H66" s="22"/>
       <c r="I66" s="22"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -5257,7 +5260,7 @@
       <c r="H67" s="22"/>
       <c r="I67" s="22"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>238</v>
       </c>
@@ -5276,7 +5279,7 @@
       <c r="H68" s="22"/>
       <c r="I68" s="22"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>214</v>
       </c>
@@ -5295,7 +5298,7 @@
       <c r="H69" s="22"/>
       <c r="I69" s="22"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>218</v>
       </c>
@@ -5314,7 +5317,7 @@
       <c r="H70" s="22"/>
       <c r="I70" s="22"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>241</v>
       </c>
@@ -5333,7 +5336,7 @@
       <c r="H71" s="22"/>
       <c r="I71" s="22"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>254</v>
       </c>
@@ -5352,7 +5355,7 @@
       <c r="H72" s="22"/>
       <c r="I72" s="22"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>298</v>
       </c>
@@ -5371,7 +5374,7 @@
       <c r="H73" s="22"/>
       <c r="I73" s="22"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>248</v>
       </c>
@@ -5390,7 +5393,7 @@
       <c r="H74" s="22"/>
       <c r="I74" s="22"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>231</v>
       </c>
@@ -5409,7 +5412,7 @@
       <c r="H75" s="22"/>
       <c r="I75" s="22"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>244</v>
       </c>
@@ -5428,7 +5431,7 @@
       <c r="H76" s="22"/>
       <c r="I76" s="22"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>292</v>
       </c>
@@ -5447,7 +5450,7 @@
       <c r="H77" s="22"/>
       <c r="I77" s="22"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>72</v>
       </c>
@@ -5466,7 +5469,7 @@
       <c r="H78" s="22"/>
       <c r="I78" s="22"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>299</v>
       </c>
@@ -5485,7 +5488,7 @@
       <c r="H79" s="22"/>
       <c r="I79" s="22"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>213</v>
       </c>
@@ -5504,7 +5507,7 @@
       <c r="H80" s="22"/>
       <c r="I80" s="22"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>263</v>
       </c>
@@ -5523,7 +5526,7 @@
       <c r="H81" s="22"/>
       <c r="I81" s="22"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>289</v>
       </c>
@@ -5542,7 +5545,7 @@
       <c r="H82" s="22"/>
       <c r="I82" s="22"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>209</v>
       </c>
@@ -5561,7 +5564,7 @@
       <c r="H83" s="22"/>
       <c r="I83" s="22"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>216</v>
       </c>
@@ -5580,7 +5583,7 @@
       <c r="H84" s="22"/>
       <c r="I84" s="22"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>295</v>
       </c>
@@ -5599,7 +5602,7 @@
       <c r="H85" s="22"/>
       <c r="I85" s="22"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>268</v>
       </c>
@@ -5618,7 +5621,7 @@
       <c r="H86" s="22"/>
       <c r="I86" s="22"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>279</v>
       </c>
@@ -5637,7 +5640,7 @@
       <c r="H87" s="22"/>
       <c r="I87" s="22"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>280</v>
       </c>
@@ -5656,7 +5659,7 @@
       <c r="H88" s="22"/>
       <c r="I88" s="22"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>278</v>
       </c>
@@ -5675,7 +5678,7 @@
       <c r="H89" s="22"/>
       <c r="I89" s="22"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>259</v>
       </c>
@@ -5694,7 +5697,7 @@
       <c r="H90" s="22"/>
       <c r="I90" s="22"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>57</v>
       </c>
@@ -5713,7 +5716,7 @@
       <c r="H91" s="22"/>
       <c r="I91" s="22"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>297</v>
       </c>
@@ -5732,7 +5735,7 @@
       <c r="H92" s="22"/>
       <c r="I92" s="22"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>59</v>
       </c>
@@ -5751,7 +5754,7 @@
       <c r="H93" s="22"/>
       <c r="I93" s="22"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>267</v>
       </c>
@@ -5770,7 +5773,7 @@
       <c r="H94" s="22"/>
       <c r="I94" s="22"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>270</v>
       </c>
@@ -5789,7 +5792,7 @@
       <c r="H95" s="22"/>
       <c r="I95" s="22"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>257</v>
       </c>
@@ -5808,7 +5811,7 @@
       <c r="H96" s="22"/>
       <c r="I96" s="22"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>247</v>
       </c>
@@ -5827,7 +5830,7 @@
       <c r="H97" s="22"/>
       <c r="I97" s="22"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>229</v>
       </c>
@@ -5846,7 +5849,7 @@
       <c r="H98" s="22"/>
       <c r="I98" s="22"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>261</v>
       </c>
@@ -5865,7 +5868,7 @@
       <c r="H99" s="22"/>
       <c r="I99" s="22"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>208</v>
       </c>
@@ -5884,7 +5887,7 @@
       <c r="H100" s="22"/>
       <c r="I100" s="22"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>271</v>
       </c>
@@ -5903,7 +5906,7 @@
       <c r="H101" s="22"/>
       <c r="I101" s="22"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>252</v>
       </c>
@@ -5922,7 +5925,7 @@
       <c r="H102" s="22"/>
       <c r="I102" s="22"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>240</v>
       </c>
@@ -5941,7 +5944,7 @@
       <c r="H103" s="22"/>
       <c r="I103" s="22"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>245</v>
       </c>
@@ -5960,7 +5963,7 @@
       <c r="H104" s="22"/>
       <c r="I104" s="22"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>246</v>
       </c>
@@ -5979,7 +5982,7 @@
       <c r="H105" s="22"/>
       <c r="I105" s="22"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>250</v>
       </c>
@@ -5998,7 +6001,7 @@
       <c r="H106" s="22"/>
       <c r="I106" s="22"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>276</v>
       </c>
@@ -6017,7 +6020,7 @@
       <c r="H107" s="22"/>
       <c r="I107" s="22"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>233</v>
       </c>
@@ -6036,7 +6039,7 @@
       <c r="H108" s="22"/>
       <c r="I108" s="22"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>282</v>
       </c>
@@ -6055,7 +6058,7 @@
       <c r="H109" s="22"/>
       <c r="I109" s="22"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>281</v>
       </c>
@@ -6074,7 +6077,7 @@
       <c r="H110" s="22"/>
       <c r="I110" s="22"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>288</v>
       </c>
@@ -6093,7 +6096,7 @@
       <c r="H111" s="22"/>
       <c r="I111" s="22"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>293</v>
       </c>
@@ -6112,7 +6115,7 @@
       <c r="H112" s="22"/>
       <c r="I112" s="22"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>274</v>
       </c>
@@ -6131,7 +6134,7 @@
       <c r="H113" s="22"/>
       <c r="I113" s="22"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>235</v>
       </c>
@@ -6150,7 +6153,7 @@
       <c r="H114" s="22"/>
       <c r="I114" s="22"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="14" t="s">
         <v>617</v>
       </c>
@@ -6168,387 +6171,387 @@
       </c>
       <c r="F115" s="22"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D116" s="22"/>
       <c r="E116" s="22"/>
       <c r="F116" s="22"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D117" s="22"/>
       <c r="E117" s="22"/>
       <c r="F117" s="22"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D118" s="22"/>
       <c r="E118" s="22"/>
       <c r="F118" s="22"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D119" s="22"/>
       <c r="E119" s="22"/>
       <c r="F119" s="22"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D120" s="22"/>
       <c r="E120" s="22"/>
       <c r="F120" s="22"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D121" s="22"/>
       <c r="E121" s="22"/>
       <c r="F121" s="22"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D122" s="22"/>
       <c r="E122" s="22"/>
       <c r="F122" s="22"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D123" s="22"/>
       <c r="E123" s="22"/>
       <c r="F123" s="22"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D124" s="22"/>
       <c r="E124" s="22"/>
       <c r="F124" s="22"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D125" s="22"/>
       <c r="E125" s="22"/>
       <c r="F125" s="22"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D126" s="22"/>
       <c r="E126" s="22"/>
       <c r="F126" s="22"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D127" s="22"/>
       <c r="E127" s="22"/>
       <c r="F127" s="22"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D128" s="22"/>
       <c r="E128" s="22"/>
       <c r="F128" s="22"/>
     </row>
-    <row r="129" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D129" s="22"/>
       <c r="E129" s="22"/>
       <c r="F129" s="22"/>
     </row>
-    <row r="130" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D130" s="22"/>
       <c r="E130" s="22"/>
       <c r="F130" s="22"/>
     </row>
-    <row r="131" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D131" s="22"/>
       <c r="E131" s="22"/>
       <c r="F131" s="22"/>
     </row>
-    <row r="132" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D132" s="22"/>
       <c r="E132" s="22"/>
       <c r="F132" s="22"/>
     </row>
-    <row r="133" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D133" s="22"/>
       <c r="E133" s="22"/>
       <c r="F133" s="22"/>
     </row>
-    <row r="134" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D134" s="22"/>
       <c r="E134" s="22"/>
       <c r="F134" s="22"/>
     </row>
-    <row r="135" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D135" s="22"/>
       <c r="E135" s="22"/>
       <c r="F135" s="22"/>
     </row>
-    <row r="136" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D136" s="22"/>
       <c r="E136" s="22"/>
       <c r="F136" s="22"/>
     </row>
-    <row r="137" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D137" s="22"/>
       <c r="E137" s="22"/>
       <c r="F137" s="22"/>
     </row>
-    <row r="138" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D138" s="22"/>
       <c r="E138" s="22"/>
       <c r="F138" s="22"/>
     </row>
-    <row r="139" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D139" s="22"/>
       <c r="E139" s="22"/>
       <c r="F139" s="22"/>
     </row>
-    <row r="140" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D140" s="22"/>
       <c r="E140" s="22"/>
       <c r="F140" s="22"/>
     </row>
-    <row r="141" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D141" s="22"/>
       <c r="E141" s="22"/>
       <c r="F141" s="22"/>
     </row>
-    <row r="142" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D142" s="22"/>
       <c r="E142" s="22"/>
       <c r="F142" s="22"/>
     </row>
-    <row r="143" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D143" s="22"/>
       <c r="E143" s="22"/>
       <c r="F143" s="22"/>
     </row>
-    <row r="144" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D144" s="22"/>
       <c r="E144" s="22"/>
       <c r="F144" s="22"/>
     </row>
-    <row r="145" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D145" s="22"/>
       <c r="E145" s="22"/>
       <c r="F145" s="22"/>
     </row>
-    <row r="146" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D146" s="22"/>
       <c r="E146" s="22"/>
       <c r="F146" s="22"/>
     </row>
-    <row r="147" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D147" s="22"/>
       <c r="E147" s="22"/>
       <c r="F147" s="22"/>
     </row>
-    <row r="148" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D148" s="22"/>
       <c r="E148" s="22"/>
       <c r="F148" s="22"/>
     </row>
-    <row r="149" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D149" s="22"/>
       <c r="E149" s="22"/>
       <c r="F149" s="22"/>
     </row>
-    <row r="150" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D150" s="22"/>
       <c r="E150" s="22"/>
       <c r="F150" s="22"/>
     </row>
-    <row r="151" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D151" s="22"/>
       <c r="E151" s="22"/>
       <c r="F151" s="22"/>
     </row>
-    <row r="152" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D152" s="22"/>
       <c r="E152" s="22"/>
       <c r="F152" s="22"/>
     </row>
-    <row r="153" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D153" s="22"/>
       <c r="E153" s="22"/>
       <c r="F153" s="22"/>
     </row>
-    <row r="154" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D154" s="22"/>
       <c r="E154" s="22"/>
       <c r="F154" s="22"/>
     </row>
-    <row r="155" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D155" s="22"/>
       <c r="E155" s="22"/>
       <c r="F155" s="22"/>
     </row>
-    <row r="156" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D156" s="22"/>
       <c r="E156" s="22"/>
       <c r="F156" s="22"/>
     </row>
-    <row r="157" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D157" s="22"/>
       <c r="E157" s="22"/>
       <c r="F157" s="22"/>
     </row>
-    <row r="158" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D158" s="22"/>
       <c r="E158" s="22"/>
       <c r="F158" s="22"/>
     </row>
-    <row r="159" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D159" s="22"/>
       <c r="E159" s="22"/>
       <c r="F159" s="22"/>
     </row>
-    <row r="160" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D160" s="22"/>
       <c r="E160" s="22"/>
       <c r="F160" s="22"/>
     </row>
-    <row r="161" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D161" s="22"/>
       <c r="E161" s="22"/>
       <c r="F161" s="22"/>
     </row>
-    <row r="162" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D162" s="22"/>
       <c r="E162" s="22"/>
       <c r="F162" s="22"/>
     </row>
-    <row r="163" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D163" s="22"/>
       <c r="E163" s="22"/>
       <c r="F163" s="22"/>
     </row>
-    <row r="164" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D164" s="22"/>
       <c r="E164" s="22"/>
       <c r="F164" s="22"/>
     </row>
-    <row r="165" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D165" s="22"/>
       <c r="E165" s="22"/>
       <c r="F165" s="22"/>
     </row>
-    <row r="166" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D166" s="22"/>
       <c r="E166" s="22"/>
       <c r="F166" s="22"/>
     </row>
-    <row r="167" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D167" s="22"/>
       <c r="E167" s="22"/>
       <c r="F167" s="22"/>
     </row>
-    <row r="168" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D168" s="22"/>
       <c r="E168" s="22"/>
       <c r="F168" s="22"/>
     </row>
-    <row r="169" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D169" s="22"/>
       <c r="E169" s="22"/>
       <c r="F169" s="22"/>
     </row>
-    <row r="170" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D170" s="22"/>
       <c r="E170" s="22"/>
       <c r="F170" s="22"/>
     </row>
-    <row r="171" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D171" s="22"/>
       <c r="E171" s="22"/>
       <c r="F171" s="22"/>
     </row>
-    <row r="172" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D172" s="22"/>
       <c r="E172" s="22"/>
       <c r="F172" s="22"/>
     </row>
-    <row r="173" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D173" s="22"/>
       <c r="E173" s="22"/>
       <c r="F173" s="22"/>
     </row>
-    <row r="174" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D174" s="22"/>
       <c r="E174" s="22"/>
       <c r="F174" s="22"/>
     </row>
-    <row r="175" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D175" s="22"/>
       <c r="E175" s="22"/>
       <c r="F175" s="22"/>
     </row>
-    <row r="176" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D176" s="22"/>
       <c r="E176" s="22"/>
       <c r="F176" s="22"/>
     </row>
-    <row r="177" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D177" s="22"/>
       <c r="E177" s="22"/>
       <c r="F177" s="22"/>
     </row>
-    <row r="178" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D178" s="22"/>
       <c r="E178" s="22"/>
       <c r="F178" s="22"/>
     </row>
-    <row r="179" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D179" s="22"/>
       <c r="E179" s="22"/>
       <c r="F179" s="22"/>
     </row>
-    <row r="180" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D180" s="22"/>
       <c r="E180" s="22"/>
       <c r="F180" s="22"/>
     </row>
-    <row r="181" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D181" s="22"/>
       <c r="E181" s="22"/>
       <c r="F181" s="22"/>
     </row>
-    <row r="182" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D182" s="22"/>
       <c r="E182" s="22"/>
       <c r="F182" s="22"/>
     </row>
-    <row r="183" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D183" s="22"/>
       <c r="E183" s="22"/>
       <c r="F183" s="22"/>
     </row>
-    <row r="184" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D184" s="22"/>
       <c r="E184" s="22"/>
       <c r="F184" s="22"/>
     </row>
-    <row r="185" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D185" s="22"/>
       <c r="E185" s="22"/>
       <c r="F185" s="22"/>
     </row>
-    <row r="186" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D186" s="22"/>
       <c r="E186" s="22"/>
       <c r="F186" s="22"/>
     </row>
-    <row r="187" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D187" s="22"/>
       <c r="E187" s="22"/>
       <c r="F187" s="22"/>
     </row>
-    <row r="188" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D188" s="22"/>
       <c r="E188" s="22"/>
       <c r="F188" s="22"/>
     </row>
-    <row r="189" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D189" s="22"/>
       <c r="E189" s="22"/>
       <c r="F189" s="22"/>
     </row>
-    <row r="190" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D190" s="22"/>
       <c r="E190" s="22"/>
       <c r="F190" s="22"/>
     </row>
-    <row r="191" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D191" s="22"/>
       <c r="E191" s="22"/>
       <c r="F191" s="22"/>
     </row>
-    <row r="192" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D192" s="22"/>
       <c r="E192" s="22"/>
       <c r="F192" s="22"/>
@@ -6563,7 +6566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
@@ -6573,13 +6576,13 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="85.5546875" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>337</v>
       </c>
@@ -6587,7 +6590,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>308</v>
       </c>
@@ -6595,7 +6598,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>579</v>
       </c>
@@ -6603,7 +6606,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>309</v>
       </c>
@@ -6611,42 +6614,42 @@
         <v>580</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>613</v>
       </c>
@@ -6657,7 +6660,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
@@ -6667,24 +6670,24 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D4" s="21" t="s">
         <v>339</v>
       </c>
@@ -6695,7 +6698,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
@@ -6705,19 +6708,19 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>587</v>
       </c>
@@ -6725,27 +6728,27 @@
         <v>412</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>585</v>
       </c>
@@ -6756,7 +6759,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
@@ -6766,27 +6769,27 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
     </row>
   </sheetData>
@@ -6795,7 +6798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
@@ -6805,32 +6808,32 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>134</v>
       </c>
@@ -6841,7 +6844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
@@ -6851,19 +6854,19 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>343</v>
       </c>
@@ -6871,27 +6874,27 @@
         <v>347</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>444</v>
       </c>
@@ -6902,7 +6905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
@@ -6912,14 +6915,14 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" s="21" t="s">
         <v>360</v>
       </c>
@@ -6930,7 +6933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
@@ -6940,15 +6943,15 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>171</v>
       </c>
@@ -6963,7 +6966,7 @@
       </c>
       <c r="E1" s="15"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -6977,7 +6980,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>137</v>
       </c>
@@ -6991,7 +6994,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>138</v>
       </c>
@@ -7002,7 +7005,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>139</v>
       </c>
@@ -7011,7 +7014,7 @@
       </c>
       <c r="F5" s="21"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>140</v>
       </c>
@@ -7019,7 +7022,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>141</v>
       </c>
@@ -7027,7 +7030,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>129</v>
       </c>
@@ -7041,7 +7044,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -7051,15 +7054,15 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>373</v>
       </c>
@@ -7076,7 +7079,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="60" t="s">
         <v>589</v>
       </c>
@@ -7093,7 +7096,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G3" s="21" t="s">
         <v>403</v>
       </c>
@@ -7107,7 +7110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
@@ -7117,32 +7120,32 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>3</v>
       </c>
@@ -7153,7 +7156,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -7161,22 +7164,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="23"/>
       <c r="B2" s="27"/>
       <c r="F2" s="23"/>
@@ -7189,7 +7192,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -7199,172 +7202,172 @@
       <selection activeCell="F1" sqref="F1:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="16"/>
       <c r="C9" s="14"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="16"/>
       <c r="C10" s="14"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="18"/>
       <c r="C18" s="14"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="14"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="14"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="14"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="14"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="14"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="14"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="14"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="14"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="14"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="18"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="14"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="14"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3" xr:uid="{00000000-0002-0000-1400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3">
       <formula1>Species</formula1>
     </dataValidation>
   </dataValidations>
@@ -7374,7 +7377,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -7384,144 +7387,144 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="14"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="14"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="16"/>
       <c r="C9" s="14"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="16"/>
       <c r="C10" s="14"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="14"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="14"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="18"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="14"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="14"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="14"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="14"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="14"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="14"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="14"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="14"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="14"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="14"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="14"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="14"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="14"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="14"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="14"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="14"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="14"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="14"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="18"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="14"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="19"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3" xr:uid="{00000000-0002-0000-1500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3">
       <formula1>Species</formula1>
     </dataValidation>
   </dataValidations>
@@ -7530,7 +7533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -7538,191 +7541,191 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F2" s="1"/>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F3" s="1"/>
       <c r="G3" s="14"/>
       <c r="H3" s="24"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="24"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="24"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="24"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="24"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="24"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F9" s="14"/>
       <c r="G9" s="16"/>
       <c r="H9" s="24"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F10" s="14"/>
       <c r="G10" s="16"/>
       <c r="H10" s="24"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="24"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="24"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="24"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G16" s="14"/>
       <c r="H16" s="24"/>
     </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G17" s="14"/>
       <c r="H17" s="24"/>
     </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G18" s="18"/>
       <c r="H18" s="25"/>
     </row>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G19" s="14"/>
       <c r="H19" s="24"/>
     </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G20" s="14"/>
       <c r="H20" s="24"/>
     </row>
-    <row r="21" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G21" s="14"/>
       <c r="H21" s="24"/>
     </row>
-    <row r="22" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G22" s="14"/>
       <c r="H22" s="24"/>
     </row>
-    <row r="23" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G23" s="14"/>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G24" s="14"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G25" s="14"/>
       <c r="H25" s="24"/>
     </row>
-    <row r="26" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G26" s="14"/>
       <c r="H26" s="24"/>
     </row>
-    <row r="27" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G27" s="14"/>
       <c r="H27" s="24"/>
     </row>
-    <row r="28" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G28" s="14"/>
       <c r="H28" s="24"/>
     </row>
-    <row r="29" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G29" s="14"/>
       <c r="H29" s="24"/>
     </row>
-    <row r="30" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G30" s="14"/>
       <c r="H30" s="24"/>
     </row>
-    <row r="31" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G31" s="14"/>
       <c r="H31" s="24"/>
     </row>
-    <row r="32" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G32" s="14"/>
       <c r="H32" s="24"/>
     </row>
-    <row r="33" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G33" s="14"/>
       <c r="H33" s="24"/>
     </row>
-    <row r="34" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G34" s="14"/>
       <c r="H34" s="24"/>
     </row>
-    <row r="35" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G35" s="14"/>
       <c r="H35" s="24"/>
     </row>
-    <row r="36" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G36" s="14"/>
       <c r="H36" s="24"/>
     </row>
-    <row r="37" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G37" s="18"/>
       <c r="H37" s="25"/>
     </row>
-    <row r="38" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G38" s="14"/>
       <c r="H38" s="24"/>
     </row>
-    <row r="39" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G39" s="19"/>
       <c r="H39" s="26"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3" xr:uid="{00000000-0002-0000-1600-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3">
       <formula1>Species</formula1>
     </dataValidation>
   </dataValidations>
@@ -7732,7 +7735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -7740,17 +7743,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>448</v>
       </c>
@@ -7761,7 +7764,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -7771,9 +7774,9 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>404</v>
       </c>
@@ -7784,7 +7787,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -7794,13 +7797,13 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>406</v>
       </c>
@@ -7814,7 +7817,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>317</v>
       </c>
@@ -7831,7 +7834,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>318</v>
       </c>
@@ -7845,7 +7848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>305</v>
       </c>
@@ -7853,7 +7856,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -7861,27 +7864,27 @@
         <v>410</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>322</v>
       </c>
@@ -7892,7 +7895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -7902,9 +7905,9 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>405</v>
       </c>
@@ -7915,7 +7918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -7925,21 +7928,21 @@
       <selection activeCell="AD15" sqref="AD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="16.6640625" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="20" width="13.33203125" customWidth="1"/>
-    <col min="21" max="21" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="16.88671875" customWidth="1"/>
-    <col min="29" max="29" width="38.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="20" width="13.28515625" customWidth="1"/>
+    <col min="21" max="21" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="16.85546875" customWidth="1"/>
+    <col min="29" max="29" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>376</v>
       </c>
@@ -8028,7 +8031,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>377</v>
       </c>
@@ -8059,7 +8062,7 @@
       <c r="AE2" s="2"/>
       <c r="AF2" s="14"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I3" t="s">
         <v>304</v>
       </c>
@@ -8084,7 +8087,7 @@
       <c r="AE3" s="3"/>
       <c r="AF3" s="14"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="U4" s="14"/>
       <c r="V4" s="14"/>
       <c r="W4" s="14"/>
@@ -8096,7 +8099,7 @@
       <c r="AE4" s="3"/>
       <c r="AF4" s="14"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="72" t="s">
         <v>599</v>
       </c>
@@ -8175,7 +8178,7 @@
       <c r="AE5" s="4"/>
       <c r="AF5" s="14"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="X6" s="14"/>
       <c r="AA6" s="14"/>
       <c r="AB6" s="14"/>
@@ -8184,7 +8187,7 @@
       <c r="AE6" s="4"/>
       <c r="AF6" s="14"/>
     </row>
-    <row r="7" spans="1:34" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" ht="105" x14ac:dyDescent="0.25">
       <c r="X7" s="14"/>
       <c r="AA7" s="14"/>
       <c r="AB7" s="14"/>
@@ -8196,7 +8199,7 @@
       <c r="AF7" s="14"/>
       <c r="AH7" s="1"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="K8" s="66" t="s">
         <v>602</v>
       </c>
@@ -8214,7 +8217,7 @@
       <c r="AF8" s="14"/>
       <c r="AH8" s="1"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="X9" s="14"/>
       <c r="AA9" s="14"/>
       <c r="AB9" s="14"/>
@@ -8224,7 +8227,7 @@
       <c r="AF9" s="14"/>
       <c r="AH9" s="14"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="X10" s="14"/>
       <c r="AA10" s="14"/>
       <c r="AB10" s="14"/>
@@ -8234,7 +8237,7 @@
       <c r="AF10" s="14"/>
       <c r="AH10" s="14"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="X11" s="14"/>
       <c r="AA11" s="14"/>
       <c r="AB11" s="14"/>
@@ -8244,7 +8247,7 @@
       <c r="AF11" s="14"/>
       <c r="AH11" s="14"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="X12" s="14"/>
       <c r="AC12" s="14"/>
       <c r="AD12" s="7"/>
@@ -8252,7 +8255,7 @@
       <c r="AF12" s="14"/>
       <c r="AH12" s="14"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="X13" s="14"/>
       <c r="AC13" s="14"/>
       <c r="AD13" s="2"/>
@@ -8260,7 +8263,7 @@
       <c r="AF13" s="14"/>
       <c r="AH13" s="14"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="X14" s="14"/>
       <c r="AC14" s="14"/>
       <c r="AD14" s="2"/>
@@ -8268,7 +8271,7 @@
       <c r="AF14" s="14"/>
       <c r="AH14" s="14"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="X15" s="14"/>
       <c r="AC15" s="14"/>
       <c r="AD15" s="2"/>
@@ -8276,147 +8279,147 @@
       <c r="AF15" s="14"/>
       <c r="AH15" s="14"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AC16" s="14"/>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="14"/>
       <c r="AH16" s="14"/>
     </row>
-    <row r="17" spans="29:34" x14ac:dyDescent="0.3">
+    <row r="17" spans="29:34" x14ac:dyDescent="0.25">
       <c r="AC17" s="14"/>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
       <c r="AF17" s="14"/>
       <c r="AH17" s="14"/>
     </row>
-    <row r="18" spans="29:34" x14ac:dyDescent="0.3">
+    <row r="18" spans="29:34" x14ac:dyDescent="0.25">
       <c r="AC18" s="18"/>
       <c r="AD18" s="8"/>
       <c r="AE18" s="2"/>
       <c r="AF18" s="14"/>
     </row>
-    <row r="19" spans="29:34" x14ac:dyDescent="0.3">
+    <row r="19" spans="29:34" x14ac:dyDescent="0.25">
       <c r="AC19" s="14"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
       <c r="AF19" s="14"/>
     </row>
-    <row r="20" spans="29:34" x14ac:dyDescent="0.3">
+    <row r="20" spans="29:34" x14ac:dyDescent="0.25">
       <c r="AC20" s="14"/>
       <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
       <c r="AF20" s="14"/>
     </row>
-    <row r="21" spans="29:34" x14ac:dyDescent="0.3">
+    <row r="21" spans="29:34" x14ac:dyDescent="0.25">
       <c r="AC21" s="14"/>
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
       <c r="AF21" s="14"/>
     </row>
-    <row r="22" spans="29:34" x14ac:dyDescent="0.3">
+    <row r="22" spans="29:34" x14ac:dyDescent="0.25">
       <c r="AC22" s="14"/>
       <c r="AD22" s="9"/>
       <c r="AE22" s="9"/>
       <c r="AF22" s="14"/>
     </row>
-    <row r="23" spans="29:34" x14ac:dyDescent="0.3">
+    <row r="23" spans="29:34" x14ac:dyDescent="0.25">
       <c r="AC23" s="14"/>
       <c r="AD23" s="10"/>
       <c r="AE23" s="3"/>
       <c r="AF23" s="14"/>
     </row>
-    <row r="24" spans="29:34" x14ac:dyDescent="0.3">
+    <row r="24" spans="29:34" x14ac:dyDescent="0.25">
       <c r="AC24" s="14"/>
       <c r="AD24" s="11"/>
       <c r="AE24" s="11"/>
       <c r="AF24" s="14"/>
     </row>
-    <row r="25" spans="29:34" x14ac:dyDescent="0.3">
+    <row r="25" spans="29:34" x14ac:dyDescent="0.25">
       <c r="AC25" s="14"/>
       <c r="AD25" s="3"/>
       <c r="AE25" s="3"/>
       <c r="AF25" s="14"/>
     </row>
-    <row r="26" spans="29:34" x14ac:dyDescent="0.3">
+    <row r="26" spans="29:34" x14ac:dyDescent="0.25">
       <c r="AC26" s="14"/>
       <c r="AD26" s="9"/>
       <c r="AE26" s="9"/>
       <c r="AF26" s="14"/>
     </row>
-    <row r="27" spans="29:34" x14ac:dyDescent="0.3">
+    <row r="27" spans="29:34" x14ac:dyDescent="0.25">
       <c r="AC27" s="14"/>
       <c r="AD27" s="3"/>
       <c r="AE27" s="3"/>
       <c r="AF27" s="14"/>
     </row>
-    <row r="28" spans="29:34" x14ac:dyDescent="0.3">
+    <row r="28" spans="29:34" x14ac:dyDescent="0.25">
       <c r="AC28" s="14"/>
       <c r="AD28" s="12"/>
       <c r="AE28" s="12"/>
       <c r="AF28" s="12"/>
     </row>
-    <row r="29" spans="29:34" x14ac:dyDescent="0.3">
+    <row r="29" spans="29:34" x14ac:dyDescent="0.25">
       <c r="AC29" s="14"/>
       <c r="AD29" s="2"/>
       <c r="AE29" s="2"/>
       <c r="AF29" s="2"/>
     </row>
-    <row r="30" spans="29:34" x14ac:dyDescent="0.3">
+    <row r="30" spans="29:34" x14ac:dyDescent="0.25">
       <c r="AC30" s="14"/>
       <c r="AD30" s="3"/>
       <c r="AE30" s="3"/>
       <c r="AF30" s="3"/>
     </row>
-    <row r="31" spans="29:34" x14ac:dyDescent="0.3">
+    <row r="31" spans="29:34" x14ac:dyDescent="0.25">
       <c r="AC31" s="14"/>
       <c r="AD31" s="13"/>
       <c r="AE31" s="13"/>
       <c r="AF31" s="13"/>
     </row>
-    <row r="32" spans="29:34" x14ac:dyDescent="0.3">
+    <row r="32" spans="29:34" x14ac:dyDescent="0.25">
       <c r="AC32" s="14"/>
       <c r="AD32" s="13"/>
       <c r="AE32" s="13"/>
       <c r="AF32" s="13"/>
     </row>
-    <row r="33" spans="29:32" x14ac:dyDescent="0.3">
+    <row r="33" spans="29:32" x14ac:dyDescent="0.25">
       <c r="AC33" s="14"/>
       <c r="AD33" s="2"/>
       <c r="AE33" s="2"/>
       <c r="AF33" s="2"/>
     </row>
-    <row r="34" spans="29:32" x14ac:dyDescent="0.3">
+    <row r="34" spans="29:32" x14ac:dyDescent="0.25">
       <c r="AC34" s="14"/>
       <c r="AD34" s="8"/>
       <c r="AE34" s="2"/>
       <c r="AF34" s="2"/>
     </row>
-    <row r="35" spans="29:32" x14ac:dyDescent="0.3">
+    <row r="35" spans="29:32" x14ac:dyDescent="0.25">
       <c r="AC35" s="14"/>
       <c r="AD35" s="2"/>
       <c r="AE35" s="2"/>
       <c r="AF35" s="2"/>
     </row>
-    <row r="36" spans="29:32" x14ac:dyDescent="0.3">
+    <row r="36" spans="29:32" x14ac:dyDescent="0.25">
       <c r="AC36" s="14"/>
       <c r="AD36" s="2"/>
       <c r="AE36" s="2"/>
       <c r="AF36" s="2"/>
     </row>
-    <row r="37" spans="29:32" x14ac:dyDescent="0.3">
+    <row r="37" spans="29:32" x14ac:dyDescent="0.25">
       <c r="AC37" s="18"/>
       <c r="AD37" s="2"/>
       <c r="AE37" s="2"/>
       <c r="AF37" s="2"/>
     </row>
-    <row r="38" spans="29:32" x14ac:dyDescent="0.3">
+    <row r="38" spans="29:32" x14ac:dyDescent="0.25">
       <c r="AC38" s="14"/>
       <c r="AD38" s="2"/>
       <c r="AE38" s="2"/>
       <c r="AF38" s="2"/>
     </row>
-    <row r="39" spans="29:32" x14ac:dyDescent="0.3">
+    <row r="39" spans="29:32" x14ac:dyDescent="0.25">
       <c r="AC39" s="19"/>
       <c r="AD39" s="14"/>
       <c r="AE39" s="14"/>
@@ -8424,7 +8427,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X3 AH7:AH8" xr:uid="{00000000-0002-0000-1B00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X3 AH7:AH8">
       <formula1>Species</formula1>
     </dataValidation>
   </dataValidations>
@@ -8432,7 +8435,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-1B00-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'C:\Users\vegard.brathen\Dropbox (SEATRACK)\Locations\Kongsfjorden_Svalbard\[metadata_kongsfjorden_2014.xlsx]List'!#REF!</xm:f>
           </x14:formula1>
@@ -8445,7 +8448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -8455,9 +8458,9 @@
       <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>396</v>
       </c>
@@ -8468,7 +8471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
@@ -8478,12 +8481,12 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>183</v>
       </c>
@@ -8491,7 +8494,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>451</v>
       </c>
@@ -8499,7 +8502,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>451</v>
       </c>
@@ -8507,7 +8510,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>451</v>
       </c>
@@ -8515,7 +8518,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>451</v>
       </c>
@@ -8526,7 +8529,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>451</v>
       </c>
@@ -8534,7 +8537,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>1</v>
       </c>
@@ -8542,7 +8545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
@@ -8550,7 +8553,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>1</v>
       </c>
@@ -8558,7 +8561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>1</v>
       </c>
@@ -8566,7 +8569,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>450</v>
       </c>
@@ -8574,7 +8577,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>450</v>
       </c>
@@ -8582,7 +8585,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>450</v>
       </c>
@@ -8591,7 +8594,7 @@
       </c>
       <c r="K13" s="14"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>450</v>
       </c>
@@ -8600,7 +8603,7 @@
       </c>
       <c r="K14" s="14"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>450</v>
       </c>
@@ -8609,13 +8612,13 @@
       </c>
       <c r="K15" s="14"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>3</v>
       </c>
@@ -8623,7 +8626,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" t="s">
         <v>126</v>
@@ -8632,7 +8635,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>450</v>
       </c>
@@ -8646,7 +8649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -8656,9 +8659,9 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>422</v>
       </c>
@@ -8669,7 +8672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -8679,17 +8682,17 @@
       <selection activeCell="H1" sqref="H1:AD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.109375" customWidth="1"/>
-    <col min="6" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>395</v>
       </c>
@@ -8712,7 +8715,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
@@ -8726,7 +8729,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
@@ -8740,7 +8743,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
         <v>19</v>
       </c>
@@ -8756,7 +8759,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
         <v>19</v>
       </c>
@@ -8772,7 +8775,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
         <v>20</v>
       </c>
@@ -8786,7 +8789,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>21</v>
       </c>
@@ -8800,7 +8803,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>22</v>
       </c>
@@ -8814,7 +8817,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>23</v>
       </c>
@@ -8830,7 +8833,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
         <v>23</v>
       </c>
@@ -8846,7 +8849,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
         <v>23</v>
       </c>
@@ -8862,7 +8865,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>24</v>
       </c>
@@ -8876,7 +8879,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>25</v>
       </c>
@@ -8890,7 +8893,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
         <v>26</v>
       </c>
@@ -8904,7 +8907,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>27</v>
       </c>
@@ -8920,7 +8923,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:E3" xr:uid="{00000000-0002-0000-1E00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:E3">
       <formula1>Species</formula1>
     </dataValidation>
   </dataValidations>
@@ -8929,7 +8932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -8939,16 +8942,16 @@
       <selection activeCell="M2" sqref="M2:M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.109375" customWidth="1"/>
-    <col min="12" max="12" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" customWidth="1"/>
+    <col min="12" max="12" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>350</v>
       </c>
@@ -8998,7 +9001,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9021,7 +9024,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9041,7 +9044,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9061,7 +9064,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9084,7 +9087,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9101,7 +9104,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9124,7 +9127,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9147,48 +9150,48 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
   <dimension ref="A1:AK10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.44140625" customWidth="1"/>
-    <col min="2" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" customWidth="1"/>
+    <col min="2" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.88671875" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="8.88671875" style="23"/>
-    <col min="27" max="27" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.85546875" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="8.85546875" style="23"/>
+    <col min="27" max="27" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="15" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>350</v>
       </c>
@@ -9299,7 +9302,7 @@
       </c>
       <c r="AK1" s="32"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9382,7 +9385,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -9473,7 +9476,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -9517,7 +9520,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -9557,7 +9560,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="P6" s="66" t="s">
         <v>597</v>
       </c>
@@ -9601,7 +9604,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="77" t="s">
         <v>596</v>
       </c>
@@ -9609,14 +9612,14 @@
         <v>609</v>
       </c>
     </row>
-    <row r="10" spans="1:37" ht="147.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" ht="147.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>425</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA3" xr:uid="{00000000-0002-0000-2000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA3">
       <formula1>Breeding_stage</formula1>
     </dataValidation>
   </dataValidations>
@@ -9625,7 +9628,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-2000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'[Copy of Metadata Rost from Tycho 2016 (received170220).xlsx]List'!#REF!</xm:f>
           </x14:formula1>
@@ -9638,7 +9641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -9648,9 +9651,9 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>438</v>
       </c>
@@ -9661,7 +9664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -9671,9 +9674,9 @@
       <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>438</v>
       </c>
@@ -9684,7 +9687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
@@ -9694,12 +9697,12 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>300</v>
       </c>
@@ -9710,7 +9713,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -9721,7 +9724,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -9732,7 +9735,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -9743,7 +9746,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -9754,7 +9757,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -9765,7 +9768,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -9776,7 +9779,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -9787,7 +9790,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -9798,7 +9801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -9809,7 +9812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -9820,7 +9823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -9831,7 +9834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -9842,7 +9845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -9853,7 +9856,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -9864,7 +9867,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -9875,7 +9878,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -9886,7 +9889,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -9897,7 +9900,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -9908,7 +9911,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -9919,7 +9922,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -9930,7 +9933,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -9941,7 +9944,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -9952,7 +9955,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -9963,7 +9966,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -9974,7 +9977,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -9985,7 +9988,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -9996,7 +9999,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -10007,7 +10010,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -10018,7 +10021,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -10029,7 +10032,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -10040,7 +10043,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -10051,7 +10054,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -10062,7 +10065,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -10073,7 +10076,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -10084,7 +10087,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -10095,7 +10098,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -10106,7 +10109,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -10117,7 +10120,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -10128,7 +10131,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -10139,7 +10142,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -10150,7 +10153,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>121</v>
       </c>
@@ -10161,7 +10164,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>121</v>
       </c>
@@ -10172,7 +10175,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>121</v>
       </c>
@@ -10183,7 +10186,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>121</v>
       </c>
@@ -10194,7 +10197,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>121</v>
       </c>
@@ -10205,7 +10208,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>121</v>
       </c>
@@ -10216,7 +10219,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>121</v>
       </c>
@@ -10227,7 +10230,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>121</v>
       </c>
@@ -10238,7 +10241,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>123</v>
       </c>
@@ -10249,7 +10252,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>123</v>
       </c>
@@ -10260,7 +10263,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>123</v>
       </c>
@@ -10271,7 +10274,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>123</v>
       </c>
@@ -10282,7 +10285,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>122</v>
       </c>
@@ -10293,7 +10296,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>122</v>
       </c>
@@ -10304,7 +10307,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>122</v>
       </c>
@@ -10315,7 +10318,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>122</v>
       </c>
@@ -10326,7 +10329,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>120</v>
       </c>
@@ -10337,7 +10340,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>120</v>
       </c>
@@ -10348,7 +10351,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>120</v>
       </c>
@@ -10359,7 +10362,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>120</v>
       </c>
@@ -10370,7 +10373,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>120</v>
       </c>
@@ -10381,7 +10384,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>463</v>
       </c>
@@ -10392,7 +10395,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>463</v>
       </c>
@@ -10403,7 +10406,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>463</v>
       </c>
@@ -10414,7 +10417,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>463</v>
       </c>
@@ -10425,7 +10428,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -10436,7 +10439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -10447,7 +10450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -10458,7 +10461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -10469,7 +10472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -10480,7 +10483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -10491,7 +10494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -10502,7 +10505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -10513,7 +10516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -10524,7 +10527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -10535,7 +10538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -10546,7 +10549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -10557,7 +10560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -10568,7 +10571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>9</v>
       </c>
@@ -10579,7 +10582,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -10590,7 +10593,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -10601,7 +10604,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -10612,7 +10615,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>125</v>
       </c>
@@ -10623,7 +10626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>125</v>
       </c>
@@ -10640,7 +10643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
@@ -10650,9 +10653,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>326</v>
       </c>
@@ -10660,7 +10663,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10671,7 +10674,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10680,62 +10683,62 @@
       </c>
       <c r="C3" s="37"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -10746,7 +10749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
@@ -10756,12 +10759,12 @@
       <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.88671875" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>327</v>
       </c>
@@ -10769,7 +10772,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>467</v>
       </c>
@@ -10777,7 +10780,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>468</v>
       </c>
@@ -10785,7 +10788,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>469</v>
       </c>
@@ -10793,7 +10796,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>509</v>
       </c>
@@ -10801,7 +10804,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>487</v>
       </c>
@@ -10809,7 +10812,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>470</v>
       </c>
@@ -10817,7 +10820,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>328</v>
       </c>
@@ -10825,7 +10828,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>511</v>
       </c>
@@ -10836,7 +10839,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>471</v>
       </c>
@@ -10844,7 +10847,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>472</v>
       </c>
@@ -10852,7 +10855,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>473</v>
       </c>
@@ -10860,7 +10863,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>513</v>
       </c>
@@ -10868,7 +10871,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>474</v>
       </c>
@@ -10876,7 +10879,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>475</v>
       </c>
@@ -10884,7 +10887,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>476</v>
       </c>
@@ -10892,7 +10895,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>477</v>
       </c>
@@ -10900,7 +10903,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>478</v>
       </c>
@@ -10908,7 +10911,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>479</v>
       </c>
@@ -10916,7 +10919,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>480</v>
       </c>
@@ -10924,7 +10927,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>481</v>
       </c>
@@ -10932,7 +10935,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>482</v>
       </c>
@@ -10940,7 +10943,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>483</v>
       </c>
@@ -10948,7 +10951,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>484</v>
       </c>
@@ -10956,7 +10959,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>485</v>
       </c>
@@ -10964,7 +10967,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
         <v>486</v>
       </c>
@@ -10972,7 +10975,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>488</v>
       </c>
@@ -10980,7 +10983,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>489</v>
       </c>
@@ -10988,7 +10991,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>490</v>
       </c>
@@ -10996,7 +10999,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
         <v>491</v>
       </c>
@@ -11004,7 +11007,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>521</v>
       </c>
@@ -11012,7 +11015,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
         <v>520</v>
       </c>
@@ -11020,7 +11023,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>492</v>
       </c>
@@ -11028,7 +11031,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
         <v>522</v>
       </c>
@@ -11036,7 +11039,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>493</v>
       </c>
@@ -11044,7 +11047,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
         <v>494</v>
       </c>
@@ -11052,7 +11055,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>495</v>
       </c>
@@ -11060,7 +11063,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
         <v>496</v>
       </c>
@@ -11068,7 +11071,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
         <v>525</v>
       </c>
@@ -11076,7 +11079,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
         <v>527</v>
       </c>
@@ -11084,7 +11087,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="38" t="s">
         <v>529</v>
       </c>
@@ -11092,7 +11095,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
         <v>531</v>
       </c>
@@ -11100,7 +11103,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
         <v>564</v>
       </c>
@@ -11108,7 +11111,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>551</v>
       </c>
@@ -11116,7 +11119,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>565</v>
       </c>
@@ -11124,7 +11127,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>535</v>
       </c>
@@ -11132,7 +11135,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>555</v>
       </c>
@@ -11140,7 +11143,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>539</v>
       </c>
@@ -11148,7 +11151,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>561</v>
       </c>
@@ -11156,7 +11159,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>563</v>
       </c>
@@ -11164,7 +11167,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>541</v>
       </c>
@@ -11172,7 +11175,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>543</v>
       </c>
@@ -11180,7 +11183,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>545</v>
       </c>
@@ -11188,7 +11191,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>547</v>
       </c>
@@ -11196,7 +11199,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
         <v>549</v>
       </c>
@@ -11204,7 +11207,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
         <v>553</v>
       </c>
@@ -11212,7 +11215,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
         <v>558</v>
       </c>
@@ -11220,7 +11223,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>557</v>
       </c>
@@ -11228,7 +11231,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>560</v>
       </c>
@@ -11243,7 +11246,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
@@ -11253,13 +11256,13 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>330</v>
       </c>
@@ -11267,7 +11270,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -11275,7 +11278,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -11283,7 +11286,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>19</v>
       </c>
@@ -11291,7 +11294,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>20</v>
       </c>
@@ -11299,7 +11302,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>21</v>
       </c>
@@ -11307,7 +11310,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>22</v>
       </c>
@@ -11315,7 +11318,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>23</v>
       </c>
@@ -11323,7 +11326,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>24</v>
       </c>
@@ -11331,7 +11334,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>25</v>
       </c>
@@ -11339,7 +11342,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>26</v>
       </c>
@@ -11347,7 +11350,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>27</v>
       </c>
@@ -11355,14 +11358,14 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="79" t="s">
         <v>610</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3">
       <formula1>Species</formula1>
     </dataValidation>
   </dataValidations>
@@ -11372,7 +11375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
@@ -11382,13 +11385,13 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>331</v>
       </c>
@@ -11396,19 +11399,19 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="14"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>37</v>
       </c>
@@ -11416,7 +11419,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>37</v>
       </c>
@@ -11424,25 +11427,25 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B6" s="14"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="14"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>40</v>
       </c>
       <c r="B8" s="14"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>41</v>
       </c>
@@ -11450,7 +11453,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>41</v>
       </c>
@@ -11458,7 +11461,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>41</v>
       </c>
@@ -11466,36 +11469,36 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>42</v>
       </c>
       <c r="B12" s="14"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>43</v>
       </c>
       <c r="B13" s="17"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>44</v>
       </c>
       <c r="B14" s="14"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>45</v>
       </c>
       <c r="B15" s="14"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" s="14"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-0700-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
       <formula1>Species</formula1>
     </dataValidation>
   </dataValidations>
@@ -11504,25 +11507,25 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="46"/>
-    <col min="2" max="2" width="9.109375" style="47"/>
-    <col min="3" max="3" width="22.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.44140625" style="41" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="46"/>
+    <col min="2" max="2" width="9.140625" style="47"/>
+    <col min="3" max="3" width="22.85546875" style="41" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" style="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
         <v>332</v>
       </c>
@@ -11536,7 +11539,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>62.435555000000001</v>
       </c>
@@ -11550,7 +11553,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>69.064999999999998</v>
       </c>
@@ -11564,7 +11567,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>74.502499999999998</v>
       </c>
@@ -11572,7 +11575,7 @@
         <v>18.955559999999998</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>185</v>
+        <v>618</v>
       </c>
       <c r="D4" s="42" t="s">
         <v>49</v>
@@ -11581,7 +11584,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>69.635052790000003</v>
       </c>
@@ -11595,7 +11598,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>71.112909999999999</v>
       </c>
@@ -11609,7 +11612,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>60.667605610000003</v>
       </c>
@@ -11623,7 +11626,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>70.38333333333334</v>
       </c>
@@ -11637,7 +11640,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>78.252666666666656</v>
       </c>
@@ -11651,7 +11654,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>70.920559999999995</v>
       </c>
@@ -11665,7 +11668,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>67.447379999999995</v>
       </c>
@@ -11679,7 +11682,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="48">
         <v>66.584999999999994</v>
       </c>
@@ -11693,7 +11696,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f>65.32</f>
         <v>65.319999999999993</v>
@@ -11709,7 +11712,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>65.201999999999998</v>
       </c>
@@ -11723,7 +11726,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>78.900000000000006</v>
       </c>
@@ -11737,7 +11740,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>69.031000000000006</v>
       </c>
@@ -11751,7 +11754,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>70.358329999999995</v>
       </c>
@@ -11765,7 +11768,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>58.008234129999998</v>
       </c>
@@ -11779,7 +11782,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>79.584999999999994</v>
       </c>
@@ -11793,7 +11796,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>59.15</v>
       </c>
@@ -11807,7 +11810,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>65.081256666666704</v>
       </c>
@@ -11821,7 +11824,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>65.004165999999998</v>
       </c>
@@ -11835,7 +11838,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>63.968449</v>
       </c>
@@ -11849,7 +11852,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>66.179553249999998</v>
       </c>
@@ -11863,7 +11866,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>66.528840000000002</v>
       </c>
@@ -11877,7 +11880,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>65.707482999999996</v>
       </c>
@@ -11891,7 +11894,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>64.587990000000005</v>
       </c>
@@ -11905,7 +11908,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>61.950267104059002</v>
       </c>
@@ -11919,7 +11922,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>56.1858</v>
       </c>
@@ -11933,7 +11936,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>59.142426</v>
       </c>
@@ -11947,7 +11950,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>80.143974999999998</v>
       </c>
@@ -11961,7 +11964,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>69.582933333333344</v>
       </c>
@@ -11975,7 +11978,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>69.150829999999999</v>
       </c>
@@ -11989,7 +11992,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>68.747777766666673</v>
       </c>
@@ -12003,7 +12006,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>77.069096000000002</v>
       </c>
@@ -12017,7 +12020,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>70.593360000000004</v>
       </c>
@@ -12031,7 +12034,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>65.048199999999994</v>
       </c>
@@ -12045,7 +12048,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>77</v>
       </c>
@@ -12059,7 +12062,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="49">
         <v>65.540000000000006</v>
       </c>
@@ -12073,7 +12076,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="50">
         <v>57.158259000000001</v>
       </c>
@@ -12089,7 +12092,7 @@
       <c r="E40" s="39"/>
       <c r="F40" s="40"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="52">
         <v>59.512853</v>
       </c>
@@ -12103,7 +12106,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="53">
         <v>64.171599999999998</v>
       </c>
@@ -12117,7 +12120,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="54">
         <v>73.716697999999994</v>
       </c>
@@ -12131,7 +12134,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="56">
         <v>55.29777</v>
       </c>
@@ -12145,7 +12148,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="56">
         <v>51.737687000000001</v>
       </c>
@@ -12159,7 +12162,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="49">
         <v>69.8</v>
       </c>
@@ -12173,7 +12176,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="57">
         <v>64.652199999999993</v>
       </c>
@@ -12187,7 +12190,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="46">
         <v>70.68996946</v>
       </c>
@@ -12201,7 +12204,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="14">
         <v>65.540000000000006</v>
       </c>

--- a/database_struct/Standardtabeller/standardtabeller_SEATRACK3.xlsx
+++ b/database_struct/Standardtabeller/standardtabeller_SEATRACK3.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Prosjekter\SEATRACK\seatrack-db\database_struct\Standardtabeller\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="6870" tabRatio="797"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11976" windowHeight="6876" tabRatio="797" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
     <definedName name="Breeding_stage">[1]List!$C$2:$C$8</definedName>
     <definedName name="Species">[2]List!$H$2:$H$12</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -68,12 +68,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Bråthen, Vegard Sandøy</author>
   </authors>
   <commentList>
-    <comment ref="F32" authorId="0" shapeId="0">
+    <comment ref="F32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -97,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J32" authorId="0" shapeId="0">
+    <comment ref="J32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -126,12 +126,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Bråthen, Vegard Sandøy</author>
   </authors>
   <commentList>
-    <comment ref="B32" authorId="0" shapeId="0">
+    <comment ref="B32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="620">
   <si>
     <t>Migrate technology</t>
   </si>
@@ -1635,9 +1635,6 @@
     <t>Sebastien Descamps</t>
   </si>
   <si>
-    <t>Signe Christensen-Dalsgaard</t>
-  </si>
-  <si>
     <t>Svein-Håkon Lorentsen</t>
   </si>
   <si>
@@ -1714,12 +1711,6 @@
   </si>
   <si>
     <t>V_Finset</t>
-  </si>
-  <si>
-    <t>S_Christensen-Dalsgaard</t>
-  </si>
-  <si>
-    <t>T_Anker-Nilssen</t>
   </si>
   <si>
     <t>Gunnar Thor Hallgrimsson</t>
@@ -2029,11 +2020,23 @@
   <si>
     <t>Bjornoya</t>
   </si>
+  <si>
+    <t>Signe Christensen Dalsgaard</t>
+  </si>
+  <si>
+    <t>S_Christensen_Dalsgaard</t>
+  </si>
+  <si>
+    <t>Tycho Anker Nilssen</t>
+  </si>
+  <si>
+    <t>T_Anker_Nilssen</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
@@ -2822,33 +2825,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView topLeftCell="O1" workbookViewId="0">
       <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="19"/>
-    <col min="2" max="2" width="12.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" style="19" customWidth="1"/>
-    <col min="8" max="10" width="9.140625" style="19"/>
-    <col min="11" max="11" width="20.42578125" style="19" customWidth="1"/>
-    <col min="12" max="14" width="9.140625" style="19"/>
-    <col min="15" max="15" width="34.42578125" style="19" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="19"/>
-    <col min="17" max="17" width="20.85546875" style="19" customWidth="1"/>
-    <col min="18" max="18" width="59.28515625" style="19" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="9.109375" style="19"/>
+    <col min="2" max="2" width="12.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" style="19" customWidth="1"/>
+    <col min="8" max="10" width="9.109375" style="19"/>
+    <col min="11" max="11" width="20.44140625" style="19" customWidth="1"/>
+    <col min="12" max="14" width="9.109375" style="19"/>
+    <col min="15" max="15" width="34.44140625" style="19" customWidth="1"/>
+    <col min="16" max="16" width="9.109375" style="19"/>
+    <col min="17" max="17" width="20.88671875" style="19" customWidth="1"/>
+    <col min="18" max="18" width="59.33203125" style="19" customWidth="1"/>
+    <col min="19" max="16384" width="9.109375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>183</v>
       </c>
@@ -2916,7 +2919,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -2982,7 +2985,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -3048,7 +3051,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>2</v>
       </c>
@@ -3110,7 +3113,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>3</v>
       </c>
@@ -3166,7 +3169,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -3213,7 +3216,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -3255,7 +3258,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -3293,7 +3296,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -3328,7 +3331,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -3363,7 +3366,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>120</v>
       </c>
@@ -3398,7 +3401,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>121</v>
       </c>
@@ -3427,7 +3430,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>9</v>
       </c>
@@ -3459,7 +3462,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>122</v>
       </c>
@@ -3488,7 +3491,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>123</v>
       </c>
@@ -3517,7 +3520,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>124</v>
       </c>
@@ -3540,7 +3543,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:18" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>125</v>
       </c>
@@ -3563,7 +3566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:18" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:18" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>126</v>
       </c>
@@ -3589,7 +3592,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="19" spans="2:18" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:18" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F19" s="14" t="s">
         <v>64</v>
       </c>
@@ -3609,7 +3612,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:18" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:18" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F20" s="14" t="s">
         <v>65</v>
       </c>
@@ -3629,7 +3632,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:18" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:18" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F21" s="14" t="s">
         <v>66</v>
       </c>
@@ -3649,7 +3652,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:18" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:18" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F22" s="14" t="s">
         <v>67</v>
       </c>
@@ -3669,7 +3672,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:18" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:18" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F23" s="14" t="s">
         <v>68</v>
       </c>
@@ -3689,7 +3692,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="2:18" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:18" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F24" s="14" t="s">
         <v>69</v>
       </c>
@@ -3709,7 +3712,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:18" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:18" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F25" s="14" t="s">
         <v>70</v>
       </c>
@@ -3729,7 +3732,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="2:18" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:18" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F26" s="14" t="s">
         <v>71</v>
       </c>
@@ -3749,7 +3752,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="2:18" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:18" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F27" s="14" t="s">
         <v>72</v>
       </c>
@@ -3769,7 +3772,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="2:18" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:18" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="F28" s="14" t="s">
         <v>73</v>
       </c>
@@ -3786,7 +3789,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="29" spans="2:18" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:18" s="14" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="F29" s="14" t="s">
         <v>74</v>
       </c>
@@ -3803,7 +3806,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="30" spans="2:18" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:18" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F30" s="14" t="s">
         <v>75</v>
       </c>
@@ -3817,7 +3820,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="2:18" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:18" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F31" s="14" t="s">
         <v>76</v>
       </c>
@@ -3831,7 +3834,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="2:18" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:18" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F32" s="14" t="s">
         <v>77</v>
       </c>
@@ -3845,7 +3848,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F33" s="14" t="s">
         <v>78</v>
       </c>
@@ -3859,7 +3862,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F34" s="14" t="s">
         <v>79</v>
       </c>
@@ -3873,7 +3876,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F35" s="14" t="s">
         <v>80</v>
       </c>
@@ -3887,7 +3890,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F36" s="14" t="s">
         <v>81</v>
       </c>
@@ -3901,7 +3904,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F37" s="18" t="s">
         <v>82</v>
       </c>
@@ -3915,7 +3918,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F38" s="14" t="s">
         <v>83</v>
       </c>
@@ -3929,7 +3932,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F39" s="14" t="s">
         <v>84</v>
       </c>
@@ -3943,21 +3946,21 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="3:10" s="14" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:10" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="3:10" s="14" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="G41" s="36" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="42" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C42" s="14"/>
     </row>
-    <row r="43" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C43" s="14"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Species</formula1>
     </dataValidation>
   </dataValidations>
@@ -3967,7 +3970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
@@ -3977,19 +3980,19 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="32.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="32.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>336</v>
       </c>
@@ -4006,7 +4009,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>269</v>
       </c>
@@ -4025,7 +4028,7 @@
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>242</v>
       </c>
@@ -4044,7 +4047,7 @@
       <c r="H3" s="22"/>
       <c r="I3" s="22"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -4063,7 +4066,7 @@
       <c r="H4" s="22"/>
       <c r="I4" s="22"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -4082,7 +4085,7 @@
       <c r="H5" s="22"/>
       <c r="I5" s="22"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>256</v>
       </c>
@@ -4101,7 +4104,7 @@
       <c r="H6" s="22"/>
       <c r="I6" s="22"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>225</v>
       </c>
@@ -4120,12 +4123,12 @@
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C8" t="s">
         <v>49</v>
@@ -4139,7 +4142,7 @@
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>287</v>
       </c>
@@ -4158,7 +4161,7 @@
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>78</v>
       </c>
@@ -4177,7 +4180,7 @@
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>223</v>
       </c>
@@ -4196,7 +4199,7 @@
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>296</v>
       </c>
@@ -4215,7 +4218,7 @@
       <c r="H12" s="22"/>
       <c r="I12" s="22"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>294</v>
       </c>
@@ -4234,7 +4237,7 @@
       <c r="H13" s="22"/>
       <c r="I13" s="22"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>227</v>
       </c>
@@ -4253,7 +4256,7 @@
       <c r="H14" s="22"/>
       <c r="I14" s="22"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>211</v>
       </c>
@@ -4272,7 +4275,7 @@
       <c r="H15" s="22"/>
       <c r="I15" s="22"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>71</v>
       </c>
@@ -4291,7 +4294,7 @@
       <c r="H16" s="22"/>
       <c r="I16" s="22"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -4310,7 +4313,7 @@
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>230</v>
       </c>
@@ -4329,7 +4332,7 @@
       <c r="H18" s="22"/>
       <c r="I18" s="22"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>266</v>
       </c>
@@ -4348,7 +4351,7 @@
       <c r="H19" s="22"/>
       <c r="I19" s="22"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>265</v>
       </c>
@@ -4367,7 +4370,7 @@
       <c r="H20" s="22"/>
       <c r="I20" s="22"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>273</v>
       </c>
@@ -4386,7 +4389,7 @@
       <c r="H21" s="22"/>
       <c r="I21" s="22"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>284</v>
       </c>
@@ -4405,7 +4408,7 @@
       <c r="H22" s="22"/>
       <c r="I22" s="22"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>290</v>
       </c>
@@ -4424,7 +4427,7 @@
       <c r="H23" s="22"/>
       <c r="I23" s="22"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -4443,7 +4446,7 @@
       <c r="H24" s="22"/>
       <c r="I24" s="22"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>264</v>
       </c>
@@ -4462,7 +4465,7 @@
       <c r="H25" s="22"/>
       <c r="I25" s="22"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -4481,7 +4484,7 @@
       <c r="H26" s="22"/>
       <c r="I26" s="22"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>224</v>
       </c>
@@ -4500,7 +4503,7 @@
       <c r="H27" s="22"/>
       <c r="I27" s="22"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="19" t="s">
         <v>84</v>
       </c>
@@ -4519,7 +4522,7 @@
       <c r="H28" s="22"/>
       <c r="I28" s="22"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>236</v>
       </c>
@@ -4538,7 +4541,7 @@
       <c r="H29" s="22"/>
       <c r="I29" s="22"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>286</v>
       </c>
@@ -4557,7 +4560,7 @@
       <c r="H30" s="22"/>
       <c r="I30" s="22"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>228</v>
       </c>
@@ -4576,7 +4579,7 @@
       <c r="H31" s="22"/>
       <c r="I31" s="22"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>253</v>
       </c>
@@ -4595,7 +4598,7 @@
       <c r="H32" s="22"/>
       <c r="I32" s="22"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>262</v>
       </c>
@@ -4614,7 +4617,7 @@
       <c r="H33" s="22"/>
       <c r="I33" s="22"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -4633,7 +4636,7 @@
       <c r="H34" s="22"/>
       <c r="I34" s="22"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>58</v>
       </c>
@@ -4652,7 +4655,7 @@
       <c r="H35" s="22"/>
       <c r="I35" s="22"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>234</v>
       </c>
@@ -4671,7 +4674,7 @@
       <c r="H36" s="22"/>
       <c r="I36" s="22"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>74</v>
       </c>
@@ -4690,7 +4693,7 @@
       <c r="H37" s="22"/>
       <c r="I37" s="22"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -4709,7 +4712,7 @@
       <c r="H38" s="22"/>
       <c r="I38" s="22"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>65</v>
       </c>
@@ -4728,7 +4731,7 @@
       <c r="H39" s="22"/>
       <c r="I39" s="22"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>255</v>
       </c>
@@ -4747,7 +4750,7 @@
       <c r="H40" s="22"/>
       <c r="I40" s="22"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>210</v>
       </c>
@@ -4766,7 +4769,7 @@
       <c r="H41" s="22"/>
       <c r="I41" s="22"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>226</v>
       </c>
@@ -4785,7 +4788,7 @@
       <c r="H42" s="22"/>
       <c r="I42" s="22"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>220</v>
       </c>
@@ -4804,7 +4807,7 @@
       <c r="H43" s="22"/>
       <c r="I43" s="22"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>272</v>
       </c>
@@ -4823,7 +4826,7 @@
       <c r="H44" s="22"/>
       <c r="I44" s="22"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>237</v>
       </c>
@@ -4842,7 +4845,7 @@
       <c r="H45" s="22"/>
       <c r="I45" s="22"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>60</v>
       </c>
@@ -4861,7 +4864,7 @@
       <c r="H46" s="22"/>
       <c r="I46" s="22"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>239</v>
       </c>
@@ -4880,7 +4883,7 @@
       <c r="H47" s="22"/>
       <c r="I47" s="22"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>217</v>
       </c>
@@ -4899,7 +4902,7 @@
       <c r="H48" s="22"/>
       <c r="I48" s="22"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>232</v>
       </c>
@@ -4918,7 +4921,7 @@
       <c r="H49" s="22"/>
       <c r="I49" s="22"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>219</v>
       </c>
@@ -4937,7 +4940,7 @@
       <c r="H50" s="22"/>
       <c r="I50" s="22"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>283</v>
       </c>
@@ -4956,7 +4959,7 @@
       <c r="H51" s="22"/>
       <c r="I51" s="22"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>260</v>
       </c>
@@ -4975,7 +4978,7 @@
       <c r="H52" s="22"/>
       <c r="I52" s="22"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>243</v>
       </c>
@@ -4994,7 +4997,7 @@
       <c r="H53" s="22"/>
       <c r="I53" s="22"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>249</v>
       </c>
@@ -5013,7 +5016,7 @@
       <c r="H54" s="22"/>
       <c r="I54" s="22"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -5032,7 +5035,7 @@
       <c r="H55" s="22"/>
       <c r="I55" s="22"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>277</v>
       </c>
@@ -5051,7 +5054,7 @@
       <c r="H56" s="22"/>
       <c r="I56" s="22"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>285</v>
       </c>
@@ -5070,7 +5073,7 @@
       <c r="H57" s="22"/>
       <c r="I57" s="22"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>251</v>
       </c>
@@ -5089,7 +5092,7 @@
       <c r="H58" s="22"/>
       <c r="I58" s="22"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>212</v>
       </c>
@@ -5108,7 +5111,7 @@
       <c r="H59" s="22"/>
       <c r="I59" s="22"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>221</v>
       </c>
@@ -5127,7 +5130,7 @@
       <c r="H60" s="22"/>
       <c r="I60" s="22"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>291</v>
       </c>
@@ -5146,7 +5149,7 @@
       <c r="H61" s="22"/>
       <c r="I61" s="22"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>275</v>
       </c>
@@ -5165,7 +5168,7 @@
       <c r="H62" s="22"/>
       <c r="I62" s="22"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>222</v>
       </c>
@@ -5184,7 +5187,7 @@
       <c r="H63" s="22"/>
       <c r="I63" s="22"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>258</v>
       </c>
@@ -5203,9 +5206,9 @@
       <c r="H64" s="22"/>
       <c r="I64" s="22"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B65" t="s">
         <v>62</v>
@@ -5222,7 +5225,7 @@
       <c r="H65" s="22"/>
       <c r="I65" s="22"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>215</v>
       </c>
@@ -5241,7 +5244,7 @@
       <c r="H66" s="22"/>
       <c r="I66" s="22"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -5260,7 +5263,7 @@
       <c r="H67" s="22"/>
       <c r="I67" s="22"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>238</v>
       </c>
@@ -5279,7 +5282,7 @@
       <c r="H68" s="22"/>
       <c r="I68" s="22"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>214</v>
       </c>
@@ -5298,7 +5301,7 @@
       <c r="H69" s="22"/>
       <c r="I69" s="22"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>218</v>
       </c>
@@ -5317,7 +5320,7 @@
       <c r="H70" s="22"/>
       <c r="I70" s="22"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>241</v>
       </c>
@@ -5336,7 +5339,7 @@
       <c r="H71" s="22"/>
       <c r="I71" s="22"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>254</v>
       </c>
@@ -5355,7 +5358,7 @@
       <c r="H72" s="22"/>
       <c r="I72" s="22"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>298</v>
       </c>
@@ -5374,7 +5377,7 @@
       <c r="H73" s="22"/>
       <c r="I73" s="22"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>248</v>
       </c>
@@ -5393,7 +5396,7 @@
       <c r="H74" s="22"/>
       <c r="I74" s="22"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>231</v>
       </c>
@@ -5412,7 +5415,7 @@
       <c r="H75" s="22"/>
       <c r="I75" s="22"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>244</v>
       </c>
@@ -5431,7 +5434,7 @@
       <c r="H76" s="22"/>
       <c r="I76" s="22"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>292</v>
       </c>
@@ -5450,7 +5453,7 @@
       <c r="H77" s="22"/>
       <c r="I77" s="22"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>72</v>
       </c>
@@ -5469,7 +5472,7 @@
       <c r="H78" s="22"/>
       <c r="I78" s="22"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>299</v>
       </c>
@@ -5488,7 +5491,7 @@
       <c r="H79" s="22"/>
       <c r="I79" s="22"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>213</v>
       </c>
@@ -5507,7 +5510,7 @@
       <c r="H80" s="22"/>
       <c r="I80" s="22"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>263</v>
       </c>
@@ -5526,7 +5529,7 @@
       <c r="H81" s="22"/>
       <c r="I81" s="22"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>289</v>
       </c>
@@ -5545,7 +5548,7 @@
       <c r="H82" s="22"/>
       <c r="I82" s="22"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>209</v>
       </c>
@@ -5564,7 +5567,7 @@
       <c r="H83" s="22"/>
       <c r="I83" s="22"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>216</v>
       </c>
@@ -5583,7 +5586,7 @@
       <c r="H84" s="22"/>
       <c r="I84" s="22"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>295</v>
       </c>
@@ -5602,7 +5605,7 @@
       <c r="H85" s="22"/>
       <c r="I85" s="22"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>268</v>
       </c>
@@ -5621,7 +5624,7 @@
       <c r="H86" s="22"/>
       <c r="I86" s="22"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>279</v>
       </c>
@@ -5640,7 +5643,7 @@
       <c r="H87" s="22"/>
       <c r="I87" s="22"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>280</v>
       </c>
@@ -5659,7 +5662,7 @@
       <c r="H88" s="22"/>
       <c r="I88" s="22"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>278</v>
       </c>
@@ -5678,7 +5681,7 @@
       <c r="H89" s="22"/>
       <c r="I89" s="22"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>259</v>
       </c>
@@ -5697,7 +5700,7 @@
       <c r="H90" s="22"/>
       <c r="I90" s="22"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>57</v>
       </c>
@@ -5716,7 +5719,7 @@
       <c r="H91" s="22"/>
       <c r="I91" s="22"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>297</v>
       </c>
@@ -5735,7 +5738,7 @@
       <c r="H92" s="22"/>
       <c r="I92" s="22"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>59</v>
       </c>
@@ -5754,7 +5757,7 @@
       <c r="H93" s="22"/>
       <c r="I93" s="22"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>267</v>
       </c>
@@ -5773,7 +5776,7 @@
       <c r="H94" s="22"/>
       <c r="I94" s="22"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>270</v>
       </c>
@@ -5792,7 +5795,7 @@
       <c r="H95" s="22"/>
       <c r="I95" s="22"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>257</v>
       </c>
@@ -5811,7 +5814,7 @@
       <c r="H96" s="22"/>
       <c r="I96" s="22"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>247</v>
       </c>
@@ -5830,7 +5833,7 @@
       <c r="H97" s="22"/>
       <c r="I97" s="22"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>229</v>
       </c>
@@ -5849,7 +5852,7 @@
       <c r="H98" s="22"/>
       <c r="I98" s="22"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>261</v>
       </c>
@@ -5868,7 +5871,7 @@
       <c r="H99" s="22"/>
       <c r="I99" s="22"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>208</v>
       </c>
@@ -5887,7 +5890,7 @@
       <c r="H100" s="22"/>
       <c r="I100" s="22"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>271</v>
       </c>
@@ -5906,7 +5909,7 @@
       <c r="H101" s="22"/>
       <c r="I101" s="22"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>252</v>
       </c>
@@ -5925,7 +5928,7 @@
       <c r="H102" s="22"/>
       <c r="I102" s="22"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>240</v>
       </c>
@@ -5944,7 +5947,7 @@
       <c r="H103" s="22"/>
       <c r="I103" s="22"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>245</v>
       </c>
@@ -5963,7 +5966,7 @@
       <c r="H104" s="22"/>
       <c r="I104" s="22"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>246</v>
       </c>
@@ -5982,7 +5985,7 @@
       <c r="H105" s="22"/>
       <c r="I105" s="22"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>250</v>
       </c>
@@ -6001,7 +6004,7 @@
       <c r="H106" s="22"/>
       <c r="I106" s="22"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>276</v>
       </c>
@@ -6020,7 +6023,7 @@
       <c r="H107" s="22"/>
       <c r="I107" s="22"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>233</v>
       </c>
@@ -6039,7 +6042,7 @@
       <c r="H108" s="22"/>
       <c r="I108" s="22"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>282</v>
       </c>
@@ -6058,7 +6061,7 @@
       <c r="H109" s="22"/>
       <c r="I109" s="22"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>281</v>
       </c>
@@ -6077,7 +6080,7 @@
       <c r="H110" s="22"/>
       <c r="I110" s="22"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>288</v>
       </c>
@@ -6096,7 +6099,7 @@
       <c r="H111" s="22"/>
       <c r="I111" s="22"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>293</v>
       </c>
@@ -6115,7 +6118,7 @@
       <c r="H112" s="22"/>
       <c r="I112" s="22"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>274</v>
       </c>
@@ -6134,7 +6137,7 @@
       <c r="H113" s="22"/>
       <c r="I113" s="22"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>235</v>
       </c>
@@ -6153,15 +6156,15 @@
       <c r="H114" s="22"/>
       <c r="I114" s="22"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="14" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B115" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C115" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D115" s="22">
         <v>58.005279999999999</v>
@@ -6171,387 +6174,387 @@
       </c>
       <c r="F115" s="22"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D116" s="22"/>
       <c r="E116" s="22"/>
       <c r="F116" s="22"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D117" s="22"/>
       <c r="E117" s="22"/>
       <c r="F117" s="22"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D118" s="22"/>
       <c r="E118" s="22"/>
       <c r="F118" s="22"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D119" s="22"/>
       <c r="E119" s="22"/>
       <c r="F119" s="22"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D120" s="22"/>
       <c r="E120" s="22"/>
       <c r="F120" s="22"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D121" s="22"/>
       <c r="E121" s="22"/>
       <c r="F121" s="22"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D122" s="22"/>
       <c r="E122" s="22"/>
       <c r="F122" s="22"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D123" s="22"/>
       <c r="E123" s="22"/>
       <c r="F123" s="22"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D124" s="22"/>
       <c r="E124" s="22"/>
       <c r="F124" s="22"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D125" s="22"/>
       <c r="E125" s="22"/>
       <c r="F125" s="22"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D126" s="22"/>
       <c r="E126" s="22"/>
       <c r="F126" s="22"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D127" s="22"/>
       <c r="E127" s="22"/>
       <c r="F127" s="22"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D128" s="22"/>
       <c r="E128" s="22"/>
       <c r="F128" s="22"/>
     </row>
-    <row r="129" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D129" s="22"/>
       <c r="E129" s="22"/>
       <c r="F129" s="22"/>
     </row>
-    <row r="130" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D130" s="22"/>
       <c r="E130" s="22"/>
       <c r="F130" s="22"/>
     </row>
-    <row r="131" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D131" s="22"/>
       <c r="E131" s="22"/>
       <c r="F131" s="22"/>
     </row>
-    <row r="132" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D132" s="22"/>
       <c r="E132" s="22"/>
       <c r="F132" s="22"/>
     </row>
-    <row r="133" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D133" s="22"/>
       <c r="E133" s="22"/>
       <c r="F133" s="22"/>
     </row>
-    <row r="134" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D134" s="22"/>
       <c r="E134" s="22"/>
       <c r="F134" s="22"/>
     </row>
-    <row r="135" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D135" s="22"/>
       <c r="E135" s="22"/>
       <c r="F135" s="22"/>
     </row>
-    <row r="136" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D136" s="22"/>
       <c r="E136" s="22"/>
       <c r="F136" s="22"/>
     </row>
-    <row r="137" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D137" s="22"/>
       <c r="E137" s="22"/>
       <c r="F137" s="22"/>
     </row>
-    <row r="138" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D138" s="22"/>
       <c r="E138" s="22"/>
       <c r="F138" s="22"/>
     </row>
-    <row r="139" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D139" s="22"/>
       <c r="E139" s="22"/>
       <c r="F139" s="22"/>
     </row>
-    <row r="140" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D140" s="22"/>
       <c r="E140" s="22"/>
       <c r="F140" s="22"/>
     </row>
-    <row r="141" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D141" s="22"/>
       <c r="E141" s="22"/>
       <c r="F141" s="22"/>
     </row>
-    <row r="142" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D142" s="22"/>
       <c r="E142" s="22"/>
       <c r="F142" s="22"/>
     </row>
-    <row r="143" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D143" s="22"/>
       <c r="E143" s="22"/>
       <c r="F143" s="22"/>
     </row>
-    <row r="144" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D144" s="22"/>
       <c r="E144" s="22"/>
       <c r="F144" s="22"/>
     </row>
-    <row r="145" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D145" s="22"/>
       <c r="E145" s="22"/>
       <c r="F145" s="22"/>
     </row>
-    <row r="146" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D146" s="22"/>
       <c r="E146" s="22"/>
       <c r="F146" s="22"/>
     </row>
-    <row r="147" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D147" s="22"/>
       <c r="E147" s="22"/>
       <c r="F147" s="22"/>
     </row>
-    <row r="148" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D148" s="22"/>
       <c r="E148" s="22"/>
       <c r="F148" s="22"/>
     </row>
-    <row r="149" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D149" s="22"/>
       <c r="E149" s="22"/>
       <c r="F149" s="22"/>
     </row>
-    <row r="150" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D150" s="22"/>
       <c r="E150" s="22"/>
       <c r="F150" s="22"/>
     </row>
-    <row r="151" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D151" s="22"/>
       <c r="E151" s="22"/>
       <c r="F151" s="22"/>
     </row>
-    <row r="152" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D152" s="22"/>
       <c r="E152" s="22"/>
       <c r="F152" s="22"/>
     </row>
-    <row r="153" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D153" s="22"/>
       <c r="E153" s="22"/>
       <c r="F153" s="22"/>
     </row>
-    <row r="154" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D154" s="22"/>
       <c r="E154" s="22"/>
       <c r="F154" s="22"/>
     </row>
-    <row r="155" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D155" s="22"/>
       <c r="E155" s="22"/>
       <c r="F155" s="22"/>
     </row>
-    <row r="156" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D156" s="22"/>
       <c r="E156" s="22"/>
       <c r="F156" s="22"/>
     </row>
-    <row r="157" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D157" s="22"/>
       <c r="E157" s="22"/>
       <c r="F157" s="22"/>
     </row>
-    <row r="158" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D158" s="22"/>
       <c r="E158" s="22"/>
       <c r="F158" s="22"/>
     </row>
-    <row r="159" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D159" s="22"/>
       <c r="E159" s="22"/>
       <c r="F159" s="22"/>
     </row>
-    <row r="160" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D160" s="22"/>
       <c r="E160" s="22"/>
       <c r="F160" s="22"/>
     </row>
-    <row r="161" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D161" s="22"/>
       <c r="E161" s="22"/>
       <c r="F161" s="22"/>
     </row>
-    <row r="162" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D162" s="22"/>
       <c r="E162" s="22"/>
       <c r="F162" s="22"/>
     </row>
-    <row r="163" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D163" s="22"/>
       <c r="E163" s="22"/>
       <c r="F163" s="22"/>
     </row>
-    <row r="164" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D164" s="22"/>
       <c r="E164" s="22"/>
       <c r="F164" s="22"/>
     </row>
-    <row r="165" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D165" s="22"/>
       <c r="E165" s="22"/>
       <c r="F165" s="22"/>
     </row>
-    <row r="166" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D166" s="22"/>
       <c r="E166" s="22"/>
       <c r="F166" s="22"/>
     </row>
-    <row r="167" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D167" s="22"/>
       <c r="E167" s="22"/>
       <c r="F167" s="22"/>
     </row>
-    <row r="168" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D168" s="22"/>
       <c r="E168" s="22"/>
       <c r="F168" s="22"/>
     </row>
-    <row r="169" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D169" s="22"/>
       <c r="E169" s="22"/>
       <c r="F169" s="22"/>
     </row>
-    <row r="170" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D170" s="22"/>
       <c r="E170" s="22"/>
       <c r="F170" s="22"/>
     </row>
-    <row r="171" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D171" s="22"/>
       <c r="E171" s="22"/>
       <c r="F171" s="22"/>
     </row>
-    <row r="172" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D172" s="22"/>
       <c r="E172" s="22"/>
       <c r="F172" s="22"/>
     </row>
-    <row r="173" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D173" s="22"/>
       <c r="E173" s="22"/>
       <c r="F173" s="22"/>
     </row>
-    <row r="174" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D174" s="22"/>
       <c r="E174" s="22"/>
       <c r="F174" s="22"/>
     </row>
-    <row r="175" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D175" s="22"/>
       <c r="E175" s="22"/>
       <c r="F175" s="22"/>
     </row>
-    <row r="176" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D176" s="22"/>
       <c r="E176" s="22"/>
       <c r="F176" s="22"/>
     </row>
-    <row r="177" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D177" s="22"/>
       <c r="E177" s="22"/>
       <c r="F177" s="22"/>
     </row>
-    <row r="178" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D178" s="22"/>
       <c r="E178" s="22"/>
       <c r="F178" s="22"/>
     </row>
-    <row r="179" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D179" s="22"/>
       <c r="E179" s="22"/>
       <c r="F179" s="22"/>
     </row>
-    <row r="180" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D180" s="22"/>
       <c r="E180" s="22"/>
       <c r="F180" s="22"/>
     </row>
-    <row r="181" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D181" s="22"/>
       <c r="E181" s="22"/>
       <c r="F181" s="22"/>
     </row>
-    <row r="182" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D182" s="22"/>
       <c r="E182" s="22"/>
       <c r="F182" s="22"/>
     </row>
-    <row r="183" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D183" s="22"/>
       <c r="E183" s="22"/>
       <c r="F183" s="22"/>
     </row>
-    <row r="184" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D184" s="22"/>
       <c r="E184" s="22"/>
       <c r="F184" s="22"/>
     </row>
-    <row r="185" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D185" s="22"/>
       <c r="E185" s="22"/>
       <c r="F185" s="22"/>
     </row>
-    <row r="186" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D186" s="22"/>
       <c r="E186" s="22"/>
       <c r="F186" s="22"/>
     </row>
-    <row r="187" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D187" s="22"/>
       <c r="E187" s="22"/>
       <c r="F187" s="22"/>
     </row>
-    <row r="188" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D188" s="22"/>
       <c r="E188" s="22"/>
       <c r="F188" s="22"/>
     </row>
-    <row r="189" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D189" s="22"/>
       <c r="E189" s="22"/>
       <c r="F189" s="22"/>
     </row>
-    <row r="190" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D190" s="22"/>
       <c r="E190" s="22"/>
       <c r="F190" s="22"/>
     </row>
-    <row r="191" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D191" s="22"/>
       <c r="E191" s="22"/>
       <c r="F191" s="22"/>
     </row>
-    <row r="192" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D192" s="22"/>
       <c r="E192" s="22"/>
       <c r="F192" s="22"/>
@@ -6566,7 +6569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
@@ -6576,13 +6579,13 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="85.5703125" customWidth="1"/>
+    <col min="1" max="1" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>337</v>
       </c>
@@ -6590,7 +6593,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>308</v>
       </c>
@@ -6598,60 +6601,60 @@
         <v>401</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>309</v>
       </c>
       <c r="C4" s="58" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
   </sheetData>
@@ -6660,7 +6663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
@@ -6670,24 +6673,24 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D4" s="21" t="s">
         <v>339</v>
       </c>
@@ -6698,7 +6701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
@@ -6708,49 +6711,49 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>582</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>585</v>
       </c>
     </row>
   </sheetData>
@@ -6759,7 +6762,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
@@ -6769,27 +6772,27 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
     </row>
   </sheetData>
@@ -6798,7 +6801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
@@ -6808,32 +6811,32 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>134</v>
       </c>
@@ -6844,7 +6847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
@@ -6854,19 +6857,19 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>343</v>
       </c>
@@ -6874,27 +6877,27 @@
         <v>347</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>444</v>
       </c>
@@ -6905,7 +6908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
@@ -6915,14 +6918,14 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C3" s="21" t="s">
         <v>360</v>
       </c>
@@ -6933,7 +6936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
@@ -6943,15 +6946,15 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>171</v>
       </c>
@@ -6966,7 +6969,7 @@
       </c>
       <c r="E1" s="15"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -6980,7 +6983,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>137</v>
       </c>
@@ -6994,7 +6997,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>138</v>
       </c>
@@ -7005,7 +7008,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>139</v>
       </c>
@@ -7014,7 +7017,7 @@
       </c>
       <c r="F5" s="21"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>140</v>
       </c>
@@ -7022,7 +7025,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>141</v>
       </c>
@@ -7030,7 +7033,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>129</v>
       </c>
@@ -7044,7 +7047,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -7054,15 +7057,15 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>373</v>
       </c>
@@ -7079,12 +7082,12 @@
         <v>375</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="60" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C2" s="60">
         <v>2015</v>
@@ -7093,10 +7096,10 @@
         <v>8</v>
       </c>
       <c r="E2" s="60" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G3" s="21" t="s">
         <v>403</v>
       </c>
@@ -7110,7 +7113,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
@@ -7120,32 +7123,32 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>3</v>
       </c>
@@ -7156,7 +7159,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -7164,22 +7167,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="23"/>
       <c r="B2" s="27"/>
       <c r="F2" s="23"/>
@@ -7192,7 +7195,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -7202,172 +7205,172 @@
       <selection activeCell="F1" sqref="F1:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="16"/>
       <c r="C9" s="14"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="16"/>
       <c r="C10" s="14"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="18"/>
       <c r="C18" s="14"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" s="14"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" s="14"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" s="14"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" s="14"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" s="14"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="14"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="14"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="14"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="14"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="18"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="14"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="14"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3" xr:uid="{00000000-0002-0000-1400-000000000000}">
       <formula1>Species</formula1>
     </dataValidation>
   </dataValidations>
@@ -7377,7 +7380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -7387,144 +7390,144 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" s="14"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" s="14"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" s="16"/>
       <c r="C9" s="14"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" s="16"/>
       <c r="C10" s="14"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16" s="14"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="14"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="18"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="14"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="14"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="14"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="14"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="14"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="14"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="14"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="14"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="14"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" s="14"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="14"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="14"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" s="14"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="14"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="14"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="14"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="14"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="14"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="18"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="14"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="19"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3" xr:uid="{00000000-0002-0000-1500-000000000000}">
       <formula1>Species</formula1>
     </dataValidation>
   </dataValidations>
@@ -7533,7 +7536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -7541,191 +7544,191 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F2" s="1"/>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F3" s="1"/>
       <c r="G3" s="14"/>
       <c r="H3" s="24"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="24"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="24"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="24"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="24"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="24"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F9" s="14"/>
       <c r="G9" s="16"/>
       <c r="H9" s="24"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F10" s="14"/>
       <c r="G10" s="16"/>
       <c r="H10" s="24"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="24"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="24"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="24"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G16" s="14"/>
       <c r="H16" s="24"/>
     </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G17" s="14"/>
       <c r="H17" s="24"/>
     </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G18" s="18"/>
       <c r="H18" s="25"/>
     </row>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G19" s="14"/>
       <c r="H19" s="24"/>
     </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G20" s="14"/>
       <c r="H20" s="24"/>
     </row>
-    <row r="21" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G21" s="14"/>
       <c r="H21" s="24"/>
     </row>
-    <row r="22" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G22" s="14"/>
       <c r="H22" s="24"/>
     </row>
-    <row r="23" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G23" s="14"/>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G24" s="14"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G25" s="14"/>
       <c r="H25" s="24"/>
     </row>
-    <row r="26" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G26" s="14"/>
       <c r="H26" s="24"/>
     </row>
-    <row r="27" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G27" s="14"/>
       <c r="H27" s="24"/>
     </row>
-    <row r="28" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G28" s="14"/>
       <c r="H28" s="24"/>
     </row>
-    <row r="29" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G29" s="14"/>
       <c r="H29" s="24"/>
     </row>
-    <row r="30" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G30" s="14"/>
       <c r="H30" s="24"/>
     </row>
-    <row r="31" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G31" s="14"/>
       <c r="H31" s="24"/>
     </row>
-    <row r="32" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G32" s="14"/>
       <c r="H32" s="24"/>
     </row>
-    <row r="33" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G33" s="14"/>
       <c r="H33" s="24"/>
     </row>
-    <row r="34" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G34" s="14"/>
       <c r="H34" s="24"/>
     </row>
-    <row r="35" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G35" s="14"/>
       <c r="H35" s="24"/>
     </row>
-    <row r="36" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G36" s="14"/>
       <c r="H36" s="24"/>
     </row>
-    <row r="37" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G37" s="18"/>
       <c r="H37" s="25"/>
     </row>
-    <row r="38" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G38" s="14"/>
       <c r="H38" s="24"/>
     </row>
-    <row r="39" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G39" s="19"/>
       <c r="H39" s="26"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3" xr:uid="{00000000-0002-0000-1600-000000000000}">
       <formula1>Species</formula1>
     </dataValidation>
   </dataValidations>
@@ -7735,7 +7738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -7743,17 +7746,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>448</v>
       </c>
@@ -7764,7 +7767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -7774,9 +7777,9 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>404</v>
       </c>
@@ -7787,7 +7790,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -7797,13 +7800,13 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>406</v>
       </c>
@@ -7817,7 +7820,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>317</v>
       </c>
@@ -7834,7 +7837,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>318</v>
       </c>
@@ -7848,7 +7851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>305</v>
       </c>
@@ -7856,7 +7859,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -7864,27 +7867,27 @@
         <v>410</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>322</v>
       </c>
@@ -7895,7 +7898,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -7905,9 +7908,9 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>405</v>
       </c>
@@ -7918,7 +7921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -7928,21 +7931,21 @@
       <selection activeCell="AD15" sqref="AD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="16.7109375" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="20" width="13.28515625" customWidth="1"/>
-    <col min="21" max="21" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="16.85546875" customWidth="1"/>
-    <col min="29" max="29" width="38.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="16.6640625" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="20" width="13.33203125" customWidth="1"/>
+    <col min="21" max="21" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="16.88671875" customWidth="1"/>
+    <col min="29" max="29" width="38.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>376</v>
       </c>
@@ -7974,7 +7977,7 @@
         <v>385</v>
       </c>
       <c r="K1" s="75" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="L1" t="s">
         <v>316</v>
@@ -7986,7 +7989,7 @@
         <v>387</v>
       </c>
       <c r="O1" s="70" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="P1" t="s">
         <v>388</v>
@@ -8031,7 +8034,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>377</v>
       </c>
@@ -8062,7 +8065,7 @@
       <c r="AE2" s="2"/>
       <c r="AF2" s="14"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="I3" t="s">
         <v>304</v>
       </c>
@@ -8087,7 +8090,7 @@
       <c r="AE3" s="3"/>
       <c r="AF3" s="14"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="U4" s="14"/>
       <c r="V4" s="14"/>
       <c r="W4" s="14"/>
@@ -8099,9 +8102,9 @@
       <c r="AE4" s="3"/>
       <c r="AF4" s="14"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="72" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C5" s="73">
         <v>42238</v>
@@ -8128,25 +8131,25 @@
         <v>1</v>
       </c>
       <c r="K5" s="60" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M5" s="76" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="N5" s="76" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="P5" s="76" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="Q5" s="76" t="s">
         <v>117</v>
       </c>
       <c r="S5" s="72" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>8</v>
@@ -8155,10 +8158,10 @@
         <v>1</v>
       </c>
       <c r="V5" s="14" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="X5" s="14" t="s">
         <v>20</v>
@@ -8178,7 +8181,7 @@
       <c r="AE5" s="4"/>
       <c r="AF5" s="14"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="X6" s="14"/>
       <c r="AA6" s="14"/>
       <c r="AB6" s="14"/>
@@ -8187,37 +8190,37 @@
       <c r="AE6" s="4"/>
       <c r="AF6" s="14"/>
     </row>
-    <row r="7" spans="1:34" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" ht="86.4" x14ac:dyDescent="0.3">
       <c r="X7" s="14"/>
       <c r="AA7" s="14"/>
       <c r="AB7" s="14"/>
       <c r="AC7" s="80" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="AD7" s="3"/>
       <c r="AE7" s="3"/>
       <c r="AF7" s="14"/>
       <c r="AH7" s="1"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="K8" s="66" t="s">
+        <v>599</v>
+      </c>
+      <c r="O8" s="66" t="s">
         <v>602</v>
-      </c>
-      <c r="O8" s="66" t="s">
-        <v>605</v>
       </c>
       <c r="X8" s="14"/>
       <c r="AA8" s="14"/>
       <c r="AB8" s="14"/>
       <c r="AC8" s="14" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="14"/>
       <c r="AH8" s="1"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="X9" s="14"/>
       <c r="AA9" s="14"/>
       <c r="AB9" s="14"/>
@@ -8227,7 +8230,7 @@
       <c r="AF9" s="14"/>
       <c r="AH9" s="14"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="X10" s="14"/>
       <c r="AA10" s="14"/>
       <c r="AB10" s="14"/>
@@ -8237,7 +8240,7 @@
       <c r="AF10" s="14"/>
       <c r="AH10" s="14"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="X11" s="14"/>
       <c r="AA11" s="14"/>
       <c r="AB11" s="14"/>
@@ -8247,7 +8250,7 @@
       <c r="AF11" s="14"/>
       <c r="AH11" s="14"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="X12" s="14"/>
       <c r="AC12" s="14"/>
       <c r="AD12" s="7"/>
@@ -8255,7 +8258,7 @@
       <c r="AF12" s="14"/>
       <c r="AH12" s="14"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="X13" s="14"/>
       <c r="AC13" s="14"/>
       <c r="AD13" s="2"/>
@@ -8263,7 +8266,7 @@
       <c r="AF13" s="14"/>
       <c r="AH13" s="14"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="X14" s="14"/>
       <c r="AC14" s="14"/>
       <c r="AD14" s="2"/>
@@ -8271,7 +8274,7 @@
       <c r="AF14" s="14"/>
       <c r="AH14" s="14"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="X15" s="14"/>
       <c r="AC15" s="14"/>
       <c r="AD15" s="2"/>
@@ -8279,147 +8282,147 @@
       <c r="AF15" s="14"/>
       <c r="AH15" s="14"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="AC16" s="14"/>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="14"/>
       <c r="AH16" s="14"/>
     </row>
-    <row r="17" spans="29:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="29:34" x14ac:dyDescent="0.3">
       <c r="AC17" s="14"/>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
       <c r="AF17" s="14"/>
       <c r="AH17" s="14"/>
     </row>
-    <row r="18" spans="29:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="29:34" x14ac:dyDescent="0.3">
       <c r="AC18" s="18"/>
       <c r="AD18" s="8"/>
       <c r="AE18" s="2"/>
       <c r="AF18" s="14"/>
     </row>
-    <row r="19" spans="29:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="29:34" x14ac:dyDescent="0.3">
       <c r="AC19" s="14"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
       <c r="AF19" s="14"/>
     </row>
-    <row r="20" spans="29:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="29:34" x14ac:dyDescent="0.3">
       <c r="AC20" s="14"/>
       <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
       <c r="AF20" s="14"/>
     </row>
-    <row r="21" spans="29:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="29:34" x14ac:dyDescent="0.3">
       <c r="AC21" s="14"/>
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
       <c r="AF21" s="14"/>
     </row>
-    <row r="22" spans="29:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="29:34" x14ac:dyDescent="0.3">
       <c r="AC22" s="14"/>
       <c r="AD22" s="9"/>
       <c r="AE22" s="9"/>
       <c r="AF22" s="14"/>
     </row>
-    <row r="23" spans="29:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="29:34" x14ac:dyDescent="0.3">
       <c r="AC23" s="14"/>
       <c r="AD23" s="10"/>
       <c r="AE23" s="3"/>
       <c r="AF23" s="14"/>
     </row>
-    <row r="24" spans="29:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="29:34" x14ac:dyDescent="0.3">
       <c r="AC24" s="14"/>
       <c r="AD24" s="11"/>
       <c r="AE24" s="11"/>
       <c r="AF24" s="14"/>
     </row>
-    <row r="25" spans="29:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="29:34" x14ac:dyDescent="0.3">
       <c r="AC25" s="14"/>
       <c r="AD25" s="3"/>
       <c r="AE25" s="3"/>
       <c r="AF25" s="14"/>
     </row>
-    <row r="26" spans="29:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="29:34" x14ac:dyDescent="0.3">
       <c r="AC26" s="14"/>
       <c r="AD26" s="9"/>
       <c r="AE26" s="9"/>
       <c r="AF26" s="14"/>
     </row>
-    <row r="27" spans="29:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="29:34" x14ac:dyDescent="0.3">
       <c r="AC27" s="14"/>
       <c r="AD27" s="3"/>
       <c r="AE27" s="3"/>
       <c r="AF27" s="14"/>
     </row>
-    <row r="28" spans="29:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="29:34" x14ac:dyDescent="0.3">
       <c r="AC28" s="14"/>
       <c r="AD28" s="12"/>
       <c r="AE28" s="12"/>
       <c r="AF28" s="12"/>
     </row>
-    <row r="29" spans="29:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="29:34" x14ac:dyDescent="0.3">
       <c r="AC29" s="14"/>
       <c r="AD29" s="2"/>
       <c r="AE29" s="2"/>
       <c r="AF29" s="2"/>
     </row>
-    <row r="30" spans="29:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="29:34" x14ac:dyDescent="0.3">
       <c r="AC30" s="14"/>
       <c r="AD30" s="3"/>
       <c r="AE30" s="3"/>
       <c r="AF30" s="3"/>
     </row>
-    <row r="31" spans="29:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="29:34" x14ac:dyDescent="0.3">
       <c r="AC31" s="14"/>
       <c r="AD31" s="13"/>
       <c r="AE31" s="13"/>
       <c r="AF31" s="13"/>
     </row>
-    <row r="32" spans="29:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="29:34" x14ac:dyDescent="0.3">
       <c r="AC32" s="14"/>
       <c r="AD32" s="13"/>
       <c r="AE32" s="13"/>
       <c r="AF32" s="13"/>
     </row>
-    <row r="33" spans="29:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="29:32" x14ac:dyDescent="0.3">
       <c r="AC33" s="14"/>
       <c r="AD33" s="2"/>
       <c r="AE33" s="2"/>
       <c r="AF33" s="2"/>
     </row>
-    <row r="34" spans="29:32" x14ac:dyDescent="0.25">
+    <row r="34" spans="29:32" x14ac:dyDescent="0.3">
       <c r="AC34" s="14"/>
       <c r="AD34" s="8"/>
       <c r="AE34" s="2"/>
       <c r="AF34" s="2"/>
     </row>
-    <row r="35" spans="29:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="29:32" x14ac:dyDescent="0.3">
       <c r="AC35" s="14"/>
       <c r="AD35" s="2"/>
       <c r="AE35" s="2"/>
       <c r="AF35" s="2"/>
     </row>
-    <row r="36" spans="29:32" x14ac:dyDescent="0.25">
+    <row r="36" spans="29:32" x14ac:dyDescent="0.3">
       <c r="AC36" s="14"/>
       <c r="AD36" s="2"/>
       <c r="AE36" s="2"/>
       <c r="AF36" s="2"/>
     </row>
-    <row r="37" spans="29:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="29:32" x14ac:dyDescent="0.3">
       <c r="AC37" s="18"/>
       <c r="AD37" s="2"/>
       <c r="AE37" s="2"/>
       <c r="AF37" s="2"/>
     </row>
-    <row r="38" spans="29:32" x14ac:dyDescent="0.25">
+    <row r="38" spans="29:32" x14ac:dyDescent="0.3">
       <c r="AC38" s="14"/>
       <c r="AD38" s="2"/>
       <c r="AE38" s="2"/>
       <c r="AF38" s="2"/>
     </row>
-    <row r="39" spans="29:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="29:32" x14ac:dyDescent="0.3">
       <c r="AC39" s="19"/>
       <c r="AD39" s="14"/>
       <c r="AE39" s="14"/>
@@ -8427,7 +8430,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X3 AH7:AH8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X3 AH7:AH8" xr:uid="{00000000-0002-0000-1B00-000000000000}">
       <formula1>Species</formula1>
     </dataValidation>
   </dataValidations>
@@ -8435,7 +8438,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-1B00-000001000000}">
           <x14:formula1>
             <xm:f>'C:\Users\vegard.brathen\Dropbox (SEATRACK)\Locations\Kongsfjorden_Svalbard\[metadata_kongsfjorden_2014.xlsx]List'!#REF!</xm:f>
           </x14:formula1>
@@ -8448,7 +8451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -8458,9 +8461,9 @@
       <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>396</v>
       </c>
@@ -8471,7 +8474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
@@ -8481,12 +8484,12 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>183</v>
       </c>
@@ -8494,7 +8497,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>451</v>
       </c>
@@ -8502,7 +8505,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>451</v>
       </c>
@@ -8510,7 +8513,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>451</v>
       </c>
@@ -8518,7 +8521,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>451</v>
       </c>
@@ -8529,7 +8532,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>451</v>
       </c>
@@ -8537,7 +8540,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>1</v>
       </c>
@@ -8545,7 +8548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
@@ -8553,7 +8556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>1</v>
       </c>
@@ -8561,7 +8564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>1</v>
       </c>
@@ -8569,7 +8572,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>450</v>
       </c>
@@ -8577,7 +8580,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>450</v>
       </c>
@@ -8585,7 +8588,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>450</v>
       </c>
@@ -8594,7 +8597,7 @@
       </c>
       <c r="K13" s="14"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>450</v>
       </c>
@@ -8603,7 +8606,7 @@
       </c>
       <c r="K14" s="14"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>450</v>
       </c>
@@ -8612,13 +8615,13 @@
       </c>
       <c r="K15" s="14"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>3</v>
       </c>
@@ -8626,7 +8629,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" t="s">
         <v>126</v>
@@ -8635,7 +8638,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>450</v>
       </c>
@@ -8649,7 +8652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -8659,9 +8662,9 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>422</v>
       </c>
@@ -8672,7 +8675,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -8682,17 +8685,17 @@
       <selection activeCell="H1" sqref="H1:AD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>395</v>
       </c>
@@ -8715,7 +8718,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
@@ -8729,7 +8732,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
@@ -8743,7 +8746,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
         <v>19</v>
       </c>
@@ -8759,7 +8762,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="14" t="s">
         <v>19</v>
       </c>
@@ -8775,7 +8778,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" s="14" t="s">
         <v>20</v>
       </c>
@@ -8789,7 +8792,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" s="14" t="s">
         <v>21</v>
       </c>
@@ -8803,7 +8806,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="14" t="s">
         <v>22</v>
       </c>
@@ -8817,7 +8820,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" s="14" t="s">
         <v>23</v>
       </c>
@@ -8833,7 +8836,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" s="14" t="s">
         <v>23</v>
       </c>
@@ -8849,7 +8852,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="14" t="s">
         <v>23</v>
       </c>
@@ -8865,7 +8868,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>24</v>
       </c>
@@ -8879,7 +8882,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>25</v>
       </c>
@@ -8893,7 +8896,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>26</v>
       </c>
@@ -8907,7 +8910,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" s="14" t="s">
         <v>27</v>
       </c>
@@ -8923,7 +8926,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:E3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:E3" xr:uid="{00000000-0002-0000-1E00-000000000000}">
       <formula1>Species</formula1>
     </dataValidation>
   </dataValidations>
@@ -8932,7 +8935,7 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -8942,16 +8945,16 @@
       <selection activeCell="M2" sqref="M2:M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" customWidth="1"/>
-    <col min="12" max="12" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" customWidth="1"/>
+    <col min="12" max="12" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>350</v>
       </c>
@@ -9001,7 +9004,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9021,10 +9024,10 @@
         <v>165</v>
       </c>
       <c r="M2" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9041,10 +9044,10 @@
         <v>166</v>
       </c>
       <c r="M3" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9061,10 +9064,10 @@
         <v>167</v>
       </c>
       <c r="M4" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9084,10 +9087,10 @@
         <v>168</v>
       </c>
       <c r="M5" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9101,10 +9104,10 @@
         <v>169</v>
       </c>
       <c r="M6" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9124,10 +9127,10 @@
         <v>170</v>
       </c>
       <c r="M7" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9141,7 +9144,7 @@
         <v>124</v>
       </c>
       <c r="M8" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
   </sheetData>
@@ -9150,7 +9153,7 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
@@ -9160,38 +9163,38 @@
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" customWidth="1"/>
-    <col min="2" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.44140625" customWidth="1"/>
+    <col min="2" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.85546875" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="8.85546875" style="23"/>
-    <col min="27" max="27" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.88671875" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="8.88671875" style="23"/>
+    <col min="27" max="27" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="15" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>350</v>
       </c>
@@ -9302,7 +9305,7 @@
       </c>
       <c r="AK1" s="32"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9316,10 +9319,10 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="F2" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -9337,7 +9340,7 @@
         <v>189</v>
       </c>
       <c r="L2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="N2" s="14" t="s">
         <v>173</v>
@@ -9376,16 +9379,16 @@
         <v>124</v>
       </c>
       <c r="AG2" s="14" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AH2" s="71" t="s">
         <v>147</v>
       </c>
       <c r="AI2" s="14" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -9399,10 +9402,10 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="F3" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -9420,7 +9423,7 @@
         <v>189</v>
       </c>
       <c r="L3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>173</v>
@@ -9467,16 +9470,16 @@
         <v>124</v>
       </c>
       <c r="AG3" s="14" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AH3" s="71" t="s">
         <v>147</v>
       </c>
       <c r="AI3" s="14" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -9511,24 +9514,24 @@
         <v>124</v>
       </c>
       <c r="AG4" s="14" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AH4" s="71" t="s">
         <v>147</v>
       </c>
       <c r="AI4" s="14" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="S5" s="66" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="T5" s="66" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="W5" s="23" t="s">
         <v>427</v>
@@ -9560,12 +9563,12 @@
         <v>431</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="P6" s="66" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="U6" s="66" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="W6" s="23" t="s">
         <v>432</v>
@@ -9604,22 +9607,22 @@
         <v>431</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E8" s="78" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" ht="147.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" ht="147.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>425</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA3" xr:uid="{00000000-0002-0000-2000-000000000000}">
       <formula1>Breeding_stage</formula1>
     </dataValidation>
   </dataValidations>
@@ -9628,7 +9631,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-2000-000001000000}">
           <x14:formula1>
             <xm:f>'[Copy of Metadata Rost from Tycho 2016 (received170220).xlsx]List'!#REF!</xm:f>
           </x14:formula1>
@@ -9641,7 +9644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -9651,9 +9654,9 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>438</v>
       </c>
@@ -9664,7 +9667,7 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -9674,9 +9677,9 @@
       <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>438</v>
       </c>
@@ -9687,7 +9690,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
@@ -9697,12 +9700,12 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>300</v>
       </c>
@@ -9713,7 +9716,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -9724,7 +9727,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -9735,7 +9738,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -9746,7 +9749,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -9757,7 +9760,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -9768,7 +9771,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -9779,7 +9782,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -9790,7 +9793,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -9801,7 +9804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -9812,7 +9815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -9823,7 +9826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -9834,7 +9837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -9845,7 +9848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -9856,7 +9859,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -9867,7 +9870,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -9878,7 +9881,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -9889,7 +9892,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -9900,7 +9903,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -9911,7 +9914,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -9922,7 +9925,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -9933,7 +9936,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -9944,7 +9947,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -9955,7 +9958,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -9966,7 +9969,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -9977,7 +9980,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -9988,7 +9991,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -9999,7 +10002,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -10010,7 +10013,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -10021,7 +10024,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -10032,7 +10035,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -10043,7 +10046,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -10054,7 +10057,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -10065,7 +10068,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -10076,7 +10079,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -10087,7 +10090,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -10098,7 +10101,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -10109,7 +10112,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -10120,7 +10123,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -10131,7 +10134,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -10142,7 +10145,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -10153,7 +10156,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>121</v>
       </c>
@@ -10164,7 +10167,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>121</v>
       </c>
@@ -10175,7 +10178,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>121</v>
       </c>
@@ -10186,7 +10189,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>121</v>
       </c>
@@ -10197,7 +10200,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>121</v>
       </c>
@@ -10208,7 +10211,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>121</v>
       </c>
@@ -10219,7 +10222,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>121</v>
       </c>
@@ -10230,7 +10233,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>121</v>
       </c>
@@ -10241,7 +10244,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>123</v>
       </c>
@@ -10252,7 +10255,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>123</v>
       </c>
@@ -10263,7 +10266,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>123</v>
       </c>
@@ -10274,7 +10277,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>123</v>
       </c>
@@ -10285,7 +10288,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>122</v>
       </c>
@@ -10296,7 +10299,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>122</v>
       </c>
@@ -10307,7 +10310,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>122</v>
       </c>
@@ -10318,7 +10321,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>122</v>
       </c>
@@ -10329,7 +10332,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>120</v>
       </c>
@@ -10340,7 +10343,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>120</v>
       </c>
@@ -10351,7 +10354,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>120</v>
       </c>
@@ -10362,7 +10365,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>120</v>
       </c>
@@ -10373,7 +10376,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>120</v>
       </c>
@@ -10384,7 +10387,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>463</v>
       </c>
@@ -10395,7 +10398,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>463</v>
       </c>
@@ -10406,7 +10409,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>463</v>
       </c>
@@ -10417,7 +10420,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>463</v>
       </c>
@@ -10428,7 +10431,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -10439,7 +10442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -10450,7 +10453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -10461,7 +10464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -10472,7 +10475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -10483,7 +10486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -10494,7 +10497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -10505,7 +10508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -10516,7 +10519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -10527,7 +10530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -10538,7 +10541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -10549,7 +10552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -10560,7 +10563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -10571,7 +10574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>9</v>
       </c>
@@ -10582,7 +10585,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -10593,7 +10596,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -10604,7 +10607,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -10615,7 +10618,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>125</v>
       </c>
@@ -10626,7 +10629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>125</v>
       </c>
@@ -10643,7 +10646,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
@@ -10653,9 +10656,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>326</v>
       </c>
@@ -10663,7 +10666,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10674,7 +10677,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10683,62 +10686,62 @@
       </c>
       <c r="C3" s="37"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -10749,22 +10752,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="1" max="1" width="28.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>327</v>
       </c>
@@ -10772,82 +10775,82 @@
         <v>442</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>467</v>
       </c>
       <c r="B2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>468</v>
       </c>
       <c r="B3" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>469</v>
       </c>
       <c r="B4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
+        <v>508</v>
+      </c>
+      <c r="B5" t="s">
         <v>509</v>
       </c>
-      <c r="B5" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>487</v>
       </c>
       <c r="B6" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>470</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>328</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
+        <v>510</v>
+      </c>
+      <c r="B9" t="s">
         <v>511</v>
-      </c>
-      <c r="B9" t="s">
-        <v>512</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>471</v>
       </c>
       <c r="B10" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>472</v>
       </c>
@@ -10855,23 +10858,23 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>473</v>
       </c>
       <c r="B12" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>474</v>
       </c>
@@ -10879,15 +10882,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
         <v>475</v>
       </c>
       <c r="B15" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
         <v>476</v>
       </c>
@@ -10895,7 +10898,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
         <v>477</v>
       </c>
@@ -10903,7 +10906,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
         <v>478</v>
       </c>
@@ -10911,23 +10914,23 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
         <v>479</v>
       </c>
       <c r="B19" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
         <v>480</v>
       </c>
       <c r="B20" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
         <v>481</v>
       </c>
@@ -10935,15 +10938,15 @@
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
         <v>482</v>
       </c>
       <c r="B22" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>483</v>
       </c>
@@ -10951,15 +10954,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>484</v>
       </c>
       <c r="B24" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>485</v>
       </c>
@@ -10967,7 +10970,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>486</v>
       </c>
@@ -10975,7 +10978,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>488</v>
       </c>
@@ -10983,260 +10986,260 @@
         <v>111</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
         <v>489</v>
       </c>
       <c r="B28" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>490</v>
       </c>
       <c r="B29" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="20" t="s">
-        <v>491</v>
+        <v>616</v>
       </c>
       <c r="B30" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="20" t="s">
         <v>518</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
-        <v>521</v>
       </c>
       <c r="B31" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B32" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B33" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="20" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B34" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="20" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B35" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="20" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B36" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="20" t="s">
+        <v>618</v>
+      </c>
+      <c r="B37" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="20" t="s">
+        <v>495</v>
+      </c>
+      <c r="B38" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="B39" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="20" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
-        <v>495</v>
-      </c>
-      <c r="B37" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
-        <v>496</v>
-      </c>
-      <c r="B38" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
+      <c r="B40" t="s">
         <v>525</v>
       </c>
-      <c r="B39" t="s">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="38" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="20" t="s">
+      <c r="B41" t="s">
         <v>527</v>
       </c>
-      <c r="B40" t="s">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="20" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="38" t="s">
+      <c r="B42" t="s">
         <v>529</v>
       </c>
-      <c r="B41" t="s">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="20" t="s">
+        <v>561</v>
+      </c>
+      <c r="B43" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="20" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="20" t="s">
+        <v>548</v>
+      </c>
+      <c r="B44" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>562</v>
+      </c>
+      <c r="B45" t="s">
         <v>531</v>
       </c>
-      <c r="B42" t="s">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="20" t="s">
-        <v>564</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="B46" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="20" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="B48" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>558</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>560</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>538</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>540</v>
+      </c>
+      <c r="B52" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>542</v>
+      </c>
+      <c r="B53" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>544</v>
+      </c>
+      <c r="B54" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="15" t="s">
+        <v>546</v>
+      </c>
+      <c r="B55" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="B56" s="15" t="s">
         <v>551</v>
       </c>
-      <c r="B44" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>565</v>
-      </c>
-      <c r="B45" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>535</v>
-      </c>
-      <c r="B46" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="15" t="s">
         <v>555</v>
       </c>
-      <c r="B47" s="7" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="B48" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>561</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="B57" s="15" t="s">
         <v>563</v>
       </c>
-      <c r="B50" s="7" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>541</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>543</v>
-      </c>
-      <c r="B52" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>545</v>
-      </c>
-      <c r="B53" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>547</v>
-      </c>
-      <c r="B54" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="15" t="s">
-        <v>549</v>
-      </c>
-      <c r="B55" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="15" t="s">
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>554</v>
+      </c>
+      <c r="B58" s="15" t="s">
         <v>553</v>
       </c>
-      <c r="B56" s="15" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="15" t="s">
-        <v>558</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>557</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="B59" s="15" t="s">
         <v>556</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>560</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>559</v>
       </c>
     </row>
   </sheetData>
@@ -11246,7 +11249,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
@@ -11256,13 +11259,13 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>330</v>
       </c>
@@ -11270,7 +11273,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -11278,7 +11281,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -11286,7 +11289,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>19</v>
       </c>
@@ -11294,7 +11297,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>20</v>
       </c>
@@ -11302,7 +11305,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>21</v>
       </c>
@@ -11310,7 +11313,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>22</v>
       </c>
@@ -11318,7 +11321,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>23</v>
       </c>
@@ -11326,7 +11329,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>24</v>
       </c>
@@ -11334,7 +11337,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>25</v>
       </c>
@@ -11342,7 +11345,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>26</v>
       </c>
@@ -11350,7 +11353,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>27</v>
       </c>
@@ -11358,14 +11361,14 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15" s="79" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>Species</formula1>
     </dataValidation>
   </dataValidations>
@@ -11375,7 +11378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
@@ -11385,13 +11388,13 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>331</v>
       </c>
@@ -11399,19 +11402,19 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="14"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>37</v>
       </c>
@@ -11419,7 +11422,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>37</v>
       </c>
@@ -11427,25 +11430,25 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B6" s="14"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="14"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>40</v>
       </c>
       <c r="B8" s="14"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>41</v>
       </c>
@@ -11453,7 +11456,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>41</v>
       </c>
@@ -11461,7 +11464,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>41</v>
       </c>
@@ -11469,36 +11472,36 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>42</v>
       </c>
       <c r="B12" s="14"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>43</v>
       </c>
       <c r="B13" s="17"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>44</v>
       </c>
       <c r="B14" s="14"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>45</v>
       </c>
       <c r="B15" s="14"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B16" s="14"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>Species</formula1>
     </dataValidation>
   </dataValidations>
@@ -11507,7 +11510,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
@@ -11517,15 +11520,15 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="46"/>
-    <col min="2" max="2" width="9.140625" style="47"/>
-    <col min="3" max="3" width="22.85546875" style="41" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" style="41" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="46"/>
+    <col min="2" max="2" width="9.109375" style="47"/>
+    <col min="3" max="3" width="22.88671875" style="41" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" style="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
         <v>332</v>
       </c>
@@ -11539,7 +11542,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>62.435555000000001</v>
       </c>
@@ -11553,7 +11556,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>69.064999999999998</v>
       </c>
@@ -11567,7 +11570,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>74.502499999999998</v>
       </c>
@@ -11575,7 +11578,7 @@
         <v>18.955559999999998</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D4" s="42" t="s">
         <v>49</v>
@@ -11584,7 +11587,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>69.635052790000003</v>
       </c>
@@ -11598,7 +11601,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>71.112909999999999</v>
       </c>
@@ -11612,7 +11615,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>60.667605610000003</v>
       </c>
@@ -11626,7 +11629,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>70.38333333333334</v>
       </c>
@@ -11640,7 +11643,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>78.252666666666656</v>
       </c>
@@ -11654,7 +11657,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>70.920559999999995</v>
       </c>
@@ -11668,7 +11671,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>67.447379999999995</v>
       </c>
@@ -11682,7 +11685,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="48">
         <v>66.584999999999994</v>
       </c>
@@ -11696,7 +11699,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f>65.32</f>
         <v>65.319999999999993</v>
@@ -11712,7 +11715,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>65.201999999999998</v>
       </c>
@@ -11726,7 +11729,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>78.900000000000006</v>
       </c>
@@ -11740,7 +11743,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>69.031000000000006</v>
       </c>
@@ -11754,7 +11757,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>70.358329999999995</v>
       </c>
@@ -11768,7 +11771,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>58.008234129999998</v>
       </c>
@@ -11782,7 +11785,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>79.584999999999994</v>
       </c>
@@ -11796,7 +11799,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>59.15</v>
       </c>
@@ -11810,7 +11813,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>65.081256666666704</v>
       </c>
@@ -11824,7 +11827,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>65.004165999999998</v>
       </c>
@@ -11838,7 +11841,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>63.968449</v>
       </c>
@@ -11852,7 +11855,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>66.179553249999998</v>
       </c>
@@ -11866,7 +11869,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>66.528840000000002</v>
       </c>
@@ -11880,7 +11883,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>65.707482999999996</v>
       </c>
@@ -11894,7 +11897,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>64.587990000000005</v>
       </c>
@@ -11908,7 +11911,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>61.950267104059002</v>
       </c>
@@ -11922,7 +11925,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>56.1858</v>
       </c>
@@ -11936,7 +11939,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>59.142426</v>
       </c>
@@ -11950,7 +11953,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>80.143974999999998</v>
       </c>
@@ -11964,7 +11967,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>69.582933333333344</v>
       </c>
@@ -11978,7 +11981,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>69.150829999999999</v>
       </c>
@@ -11992,7 +11995,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>68.747777766666673</v>
       </c>
@@ -12006,7 +12009,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>77.069096000000002</v>
       </c>
@@ -12020,7 +12023,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>70.593360000000004</v>
       </c>
@@ -12034,7 +12037,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>65.048199999999994</v>
       </c>
@@ -12048,7 +12051,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>77</v>
       </c>
@@ -12062,7 +12065,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="49">
         <v>65.540000000000006</v>
       </c>
@@ -12076,7 +12079,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="50">
         <v>57.158259000000001</v>
       </c>
@@ -12084,15 +12087,15 @@
         <v>9.0250819999999994</v>
       </c>
       <c r="C40" s="42" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D40" s="42" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E40" s="39"/>
       <c r="F40" s="40"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="52">
         <v>59.512853</v>
       </c>
@@ -12100,13 +12103,13 @@
         <v>-1.6505259999999999</v>
       </c>
       <c r="C41" s="42" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D41" s="42" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="53">
         <v>64.171599999999998</v>
       </c>
@@ -12114,13 +12117,13 @@
         <v>9.4077999999999999</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="54">
         <v>73.716697999999994</v>
       </c>
@@ -12128,13 +12131,13 @@
         <v>-56.663330100000003</v>
       </c>
       <c r="C43" s="45" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D43" s="45" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="56">
         <v>55.29777</v>
       </c>
@@ -12142,13 +12145,13 @@
         <v>-6.2804099999999998</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="56">
         <v>51.737687000000001</v>
       </c>
@@ -12156,13 +12159,13 @@
         <v>-5.3002359999999999</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="49">
         <v>69.8</v>
       </c>
@@ -12170,13 +12173,13 @@
         <v>-51.21</v>
       </c>
       <c r="C46" s="42" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D46" s="42" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="57">
         <v>64.652199999999993</v>
       </c>
@@ -12184,13 +12187,13 @@
         <v>-50.591850000000001</v>
       </c>
       <c r="C47" s="42" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D47" s="42" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="46">
         <v>70.68996946</v>
       </c>
@@ -12198,13 +12201,13 @@
         <v>23.5989887</v>
       </c>
       <c r="C48" s="42" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D48" s="42" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="14">
         <v>65.540000000000006</v>
       </c>
